--- a/Live day trading 5.xlsx
+++ b/Live day trading 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="Workbook______________" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liran\Documents\Day Trading Project\Live day trading 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liran\Documents\Day Trading Analysis\Day-Trading-Analysis-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DA6C1B-44B0-41C8-B0A5-EAF121C7C385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1821F36E-AF93-47AB-A970-050981F8B56E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="598" activeTab="1" xr2:uid="{8BEF30E9-C34B-4533-9FA8-36C545EB6E37}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="598" activeTab="1" xr2:uid="{8BEF30E9-C34B-4533-9FA8-36C545EB6E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -26,15 +26,15 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Livedaytrading4.xlsxTABLE11" hidden="1">TABLE1[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Livedaytrading4.xlsxtable21" hidden="1">table2[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Livedaytrading4.xlsxTABLE1" hidden="1">TABLE1[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Livedaytrading4.xlsxtable2" hidden="1">table2[]</definedName>
     <definedName name="TABLE">TABLE1[#All]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId10"/>
-    <pivotCache cacheId="16" r:id="rId11"/>
-    <pivotCache cacheId="17" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,6 +54,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -75,7 +76,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="TABLE1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Livedaytrading4.xlsxTABLE11"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Livedaytrading4.xlsxTABLE1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -84,7 +85,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="table2">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Livedaytrading4.xlsxtable21"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Livedaytrading4.xlsxtable2"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="255">
   <si>
     <t>Instrument</t>
   </si>
@@ -849,6 +850,15 @@
   </si>
   <si>
     <t>RRR Joint Wick and Volume Exit</t>
+  </si>
+  <si>
+    <t>Pause Num</t>
+  </si>
+  <si>
+    <t>VWAP Tag</t>
+  </si>
+  <si>
+    <t>SUPPORT</t>
   </si>
 </sst>
 </file>
@@ -1250,17 +1260,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1274,31 +1284,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="90">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1871,6 +1875,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thick">
           <color indexed="64"/>
@@ -2041,7 +2051,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2351,7 +2361,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2642,7 +2652,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3297,7 +3307,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3497,7 +3507,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3788,7 +3798,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3918,7 +3928,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4283,7 +4293,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4402,7 +4412,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>סה"כ</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9507,7 +9517,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DDE2769-87BE-429B-A26F-7F1DEC33BE93}" name="PivotTable4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DDE2769-87BE-429B-A26F-7F1DEC33BE93}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F10:I18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="54">
     <pivotField showAll="0"/>
@@ -9647,7 +9657,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EABE4E8-0961-462B-B0F6-7D4189321DC3}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EABE4E8-0961-462B-B0F6-7D4189321DC3}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A10:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="54">
     <pivotField showAll="0"/>
@@ -9787,7 +9797,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A68B55D6-E05A-4F69-A39A-1DAFECEE2545}" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A68B55D6-E05A-4F69-A39A-1DAFECEE2545}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="54">
     <pivotField showAll="0"/>
@@ -9884,7 +9894,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19F4DCFB-517C-448B-91E6-61CC51B80B22}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19F4DCFB-517C-448B-91E6-61CC51B80B22}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A33:F36" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="54">
     <pivotField showAll="0"/>
@@ -10002,7 +10012,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EC2DD5F-7448-4C72-8E7E-DB77DE90985B}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EC2DD5F-7448-4C72-8E7E-DB77DE90985B}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -10186,179 +10196,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BBC91D34-493E-446D-BAFF-E1043D920076}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="AC4:AD20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="57">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="16">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="21" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="16">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="סכום של Sum Gain" fld="39" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CD15EC3-ECC8-4BE3-8EBF-711F6ABB8885}" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CD15EC3-ECC8-4BE3-8EBF-711F6ABB8885}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="Z4:AA10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="54">
     <pivotField showAll="0"/>
@@ -10611,8 +10449,180 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BBC91D34-493E-446D-BAFF-E1043D920076}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="AC4:AD20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="57">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="21" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="סכום של Sum Gain" fld="39" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0AF1825-D4E2-40C5-9CA6-9B2C4BB67187}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0AF1825-D4E2-40C5-9CA6-9B2C4BB67187}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B10:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="54">
     <pivotField showAll="0"/>
@@ -10840,12 +10850,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE2947B8-56FB-4131-A283-6435E2EF928A}" name="TABLE1" displayName="TABLE1" ref="A1:BD6">
-  <autoFilter ref="A1:BD6" xr:uid="{55A28F25-08EC-44A8-808B-B0456C58634D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BD65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE2947B8-56FB-4131-A283-6435E2EF928A}" name="TABLE1" displayName="TABLE1" ref="A1:BG6">
+  <autoFilter ref="A1:BG6" xr:uid="{55A28F25-08EC-44A8-808B-B0456C58634D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BG65">
     <sortCondition ref="B2:B65"/>
   </sortState>
-  <tableColumns count="56">
+  <tableColumns count="59">
     <tableColumn id="1" xr3:uid="{18A68890-283F-49F9-BFA0-F70BF0D507B5}" name="Instrument" totalsRowLabel="סה&quot;כ"/>
     <tableColumn id="2" xr3:uid="{AD0A9644-C57C-430E-9262-2C32F4119BB7}" name="No"/>
     <tableColumn id="3" xr3:uid="{5226E4E8-B2D6-436A-BE33-AEE756B358B6}" name="Entry Date" dataDxfId="85"/>
@@ -10879,11 +10889,14 @@
     <tableColumn id="10" xr3:uid="{09C60BE8-22AB-465E-A658-C0A4A0DFAC62}" name="Relative Volume"/>
     <tableColumn id="21" xr3:uid="{CE9C6FD7-7F7A-4A81-8851-EFAA4C67A1E6}" name="Daily Volume in Mil"/>
     <tableColumn id="22" xr3:uid="{09129EF1-B576-4E57-82EC-581ED992BFEC}" name="Catalyst"/>
+    <tableColumn id="47" xr3:uid="{EDF876C0-6774-430B-967A-9A4EE6CF228E}" name="Pause Num"/>
+    <tableColumn id="43" xr3:uid="{D3009378-F69F-4D73-A5BB-DE0B38CDA36D}" name="VWAP Tag"/>
+    <tableColumn id="36" xr3:uid="{C29C90F4-36A5-4C74-81DE-60D2A682EC1E}" name="VWAP"/>
     <tableColumn id="84" xr3:uid="{66AE174A-F2AF-417E-8906-41C461A4C503}" name="Pattern"/>
     <tableColumn id="31" xr3:uid="{C4E67EFF-58C4-412D-A44A-E55133B0FE43}" name="Float"/>
     <tableColumn id="15" xr3:uid="{22C62395-EF40-4F73-A390-83B4A7009032}" name="Potential Price Before BE"/>
     <tableColumn id="16" xr3:uid="{D782AEFA-D6CC-4B31-B8F8-69C657BEA2FB}" name="Short Float"/>
-    <tableColumn id="28" xr3:uid="{9329C3C9-2908-4D29-8AA0-014753C01F5B}" name="Picture" dataDxfId="79" dataCellStyle="היפר-קישור"/>
+    <tableColumn id="28" xr3:uid="{9329C3C9-2908-4D29-8AA0-014753C01F5B}" name="Picture" dataDxfId="79"/>
     <tableColumn id="38" xr3:uid="{DF6F6CEF-0438-4279-81B9-85AFD6AF7FCB}" name="RRR in-trade" dataDxfId="78">
       <calculatedColumnFormula>IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Highest Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]))</calculatedColumnFormula>
     </tableColumn>
@@ -10900,7 +10913,7 @@
       <calculatedColumnFormula>TABLE1[[#This Row],[Exit Time]]-TABLE1[[#This Row],[Entry Time]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="37" xr3:uid="{FAB4E36F-3089-4CF4-BFBC-E5D348F5D8CE}" name="Sum Gain" dataDxfId="73">
-      <calculatedColumnFormula>TABLE1[[#This Row],[Net Gain/Loss]]+AP1</calculatedColumnFormula>
+      <calculatedColumnFormula>TABLE1[[#This Row],[Net Gain/Loss]]+AS1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="66" xr3:uid="{654442CA-2959-466E-9E00-353AA340305E}" name="Missed RRR on Entry" dataDxfId="72">
       <calculatedColumnFormula>(IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[SL Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])))-1</calculatedColumnFormula>
@@ -10926,22 +10939,22 @@
     <tableColumn id="70" xr3:uid="{297C4E65-C2D4-4F8B-8DE8-26E653F5ED18}" name=" with SL at pattern break" dataDxfId="65">
       <calculatedColumnFormula>IF((TABLE1[[#This Row],[Pattern SL]])&lt;&gt;FALSE,((TABLE1[[#This Row],[Pattern SL]])-(TABLE1[[#This Row],[Entry Price]]))/((TABLE1[[#This Row],[Intended Entry]])-(TABLE1[[#This Row],[SL Price]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{8884B5C9-66F4-47A2-B8AB-38631C2B7092}" name="RRR Volume Exit" dataDxfId="0">
+    <tableColumn id="34" xr3:uid="{8884B5C9-66F4-47A2-B8AB-38631C2B7092}" name="RRR Volume Exit" dataDxfId="64">
       <calculatedColumnFormula>IF(TABLE1[[#This Row],[Volume Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Volume Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{7E26F83C-1A66-4C18-A5B9-D92405BFF60D}" name="RRR Wick Exit" dataDxfId="64">
+    <tableColumn id="42" xr3:uid="{7E26F83C-1A66-4C18-A5B9-D92405BFF60D}" name="RRR Wick Exit" dataDxfId="63">
       <calculatedColumnFormula>IF(TABLE1[[#This Row],[Wick Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{A2C57835-1213-44BE-9C85-DE0885355C69}" name="RRR Joint Wick and Volume Exit" dataDxfId="1">
+    <tableColumn id="25" xr3:uid="{A2C57835-1213-44BE-9C85-DE0885355C69}" name="RRR Joint Wick and Volume Exit" dataDxfId="62">
       <calculatedColumnFormula>IF( TABLE1[[#This Row],[Wick Exit]]&lt;&gt; FALSE,TABLE1[[#This Row],[RRR Wick Exit]],IF(TABLE1[[#This Row],[Volume Exit]]&lt;&gt; FALSE,#REF!,TABLE1[[#This Row],[RRR Realized]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="100" xr3:uid="{5BF995FE-A697-4D46-B392-19B656B1D4EB}" name="RRR Candle Exit" dataDxfId="63">
+    <tableColumn id="100" xr3:uid="{5BF995FE-A697-4D46-B392-19B656B1D4EB}" name="RRR Candle Exit" dataDxfId="61">
       <calculatedColumnFormula>IF(TABLE1[[#This Row],[Candle Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Candle Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Candle Exit]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{696BE052-A961-4604-81DE-DE0E9094CB3C}" name="RRR at 2.5" dataDxfId="62">
+    <tableColumn id="40" xr3:uid="{696BE052-A961-4604-81DE-DE0E9094CB3C}" name="RRR at 2.5" dataDxfId="60">
       <calculatedColumnFormula>IF(OR(AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=2.5,TABLE1[[#This Row],[Volume Exit]]=FALSE,TABLE1[[#This Row],[Wick Exit]]=FALSE),AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=2.5,TABLE1[[#This Row],[Volume Exit RRR Reach]]&gt;=2.5,TABLE1[[#This Row],[Wick Exit]]=FALSE)), 2.5-TABLE1[[#This Row],[Missed RRR on Entry]],TABLE1[[#This Row],[RRR Realized]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{5E7C60D1-E36D-4F99-AC21-8CA3E0C83D91}" name="RRR at 3" dataDxfId="61">
+    <tableColumn id="41" xr3:uid="{5E7C60D1-E36D-4F99-AC21-8CA3E0C83D91}" name="RRR at 3" dataDxfId="59">
       <calculatedColumnFormula>IF(OR(AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=3,TABLE1[[#This Row],[Volume Exit]]=FALSE,TABLE1[[#This Row],[Wick Exit]]=FALSE),AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=3,TABLE1[[#This Row],[Volume Exit RRR Reach]]&gt;=3,TABLE1[[#This Row],[Wick Exit]]=FALSE)), 3-TABLE1[[#This Row],[Missed RRR on Entry]],TABLE1[[#This Row],[RRR Realized]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10950,110 +10963,110 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB274DD-5081-4EF7-A480-4C8B22C329DA}" name="table2" displayName="table2" ref="A1:BE16" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB274DD-5081-4EF7-A480-4C8B22C329DA}" name="table2" displayName="table2" ref="A1:BE16" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A1:BE16" xr:uid="{3DB37CBD-7DCD-41B4-BA7C-F1368C8A2E01}"/>
   <tableColumns count="57">
-    <tableColumn id="1" xr3:uid="{55397472-F9BA-409D-B736-C398127D96EB}" name="Instrument" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{748C211E-57E6-44D4-9EF9-58A9905F07D4}" name="No" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{70456BD0-5AC9-4352-BC2B-5CF2BFB30523}" name="Entry Date" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{BE20990B-C070-4837-8BAD-E6C9BEC4C84E}" name="Entry Time" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{BB1BE0C9-D380-4F77-882A-44BB537C416C}" name="Exit Time" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{BF966A08-2F0D-4EDF-B8F1-8AE1B6F3E777}" name="Setup" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{96F859AD-064F-4F58-8A21-0BBF87787804}" name="Buy/Sell" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{03629D9B-54E5-4D94-A5F5-19B0A4870A02}" name="Intended Entry" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{572908EB-CFFA-4ADA-A9F2-2CF3F407EAFF}" name="Entry Price" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{10860968-EAAB-46AD-AC05-A42351171660}" name="SL Price" dataDxfId="49"/>
-    <tableColumn id="14" xr3:uid="{BDAD1E7B-27B2-4F4E-BEE1-2375C3998CA2}" name="Exit Price" dataDxfId="48"/>
-    <tableColumn id="15" xr3:uid="{606976D5-E521-49DC-AC74-F7729F5E6A65}" name="Highest Price" dataDxfId="47"/>
-    <tableColumn id="16" xr3:uid="{EFCFFCD8-00BD-4595-A51A-6F5662762B59}" name="Lowest Price" dataDxfId="46"/>
-    <tableColumn id="17" xr3:uid="{562E38EB-5373-4F2A-938E-97C3070A2715}" name="Price Before BE" dataDxfId="45"/>
-    <tableColumn id="18" xr3:uid="{85ADAF46-AD65-491A-9459-0E84F1CAF9F7}" name="Potential Price" dataDxfId="44"/>
-    <tableColumn id="19" xr3:uid="{3BCC0E76-C786-49E1-A360-D6614E0C4599}" name="Pattern SL" dataDxfId="43"/>
-    <tableColumn id="20" xr3:uid="{4DB96B20-11AE-4167-942E-9C92E652D3FE}" name="Retest Price" dataDxfId="42"/>
-    <tableColumn id="21" xr3:uid="{EF0EDC9F-DB0A-496F-B10E-6180D69910AB}" name="TP Hit" dataDxfId="41"/>
-    <tableColumn id="22" xr3:uid="{BECF23DC-C810-42DF-B709-E1AA34EAF6F0}" name="Back to BE" dataDxfId="40"/>
-    <tableColumn id="23" xr3:uid="{6EEC8EAF-3C43-4F64-8DCF-DFF9A442C689}" name="Volume Exit" dataDxfId="39"/>
-    <tableColumn id="24" xr3:uid="{ADFD78F0-4768-442D-A91F-249F272573EA}" name="Volume Exit RRR Reach" dataDxfId="38"/>
-    <tableColumn id="25" xr3:uid="{D7B03BEF-E4DF-41DC-BCE3-31F86F54B221}" name="Volume Exit BE" dataDxfId="37"/>
-    <tableColumn id="26" xr3:uid="{095DD6AD-968D-4726-947C-A97A9B3ABC03}" name="Candle Exit" dataDxfId="36"/>
-    <tableColumn id="27" xr3:uid="{21CAAFF7-E700-4F61-8B7C-8A1D828212D2}" name="Wick Exit" dataDxfId="35"/>
-    <tableColumn id="28" xr3:uid="{A3E50707-9733-48BA-863F-3ABAB4667806}" name="Price Behaviour" dataDxfId="34"/>
-    <tableColumn id="29" xr3:uid="{22D68781-1E6D-48ED-BF50-B69C83856864}" name="VPA" dataDxfId="33"/>
-    <tableColumn id="30" xr3:uid="{5CC00B9B-2F51-4E7C-9F9E-5329B6363318}" name="Secotor" dataDxfId="32"/>
-    <tableColumn id="31" xr3:uid="{E9AB9A9A-C0F4-4C71-8462-CFFA7033EB57}" name="Relative Volume" dataDxfId="31"/>
-    <tableColumn id="40" xr3:uid="{E9CBBDCD-8647-4AF7-97D4-8D1D14B5FD00}" name="Outcome" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{55397472-F9BA-409D-B736-C398127D96EB}" name="Instrument" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{748C211E-57E6-44D4-9EF9-58A9905F07D4}" name="No" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{70456BD0-5AC9-4352-BC2B-5CF2BFB30523}" name="Entry Date" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{BE20990B-C070-4837-8BAD-E6C9BEC4C84E}" name="Entry Time" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{BB1BE0C9-D380-4F77-882A-44BB537C416C}" name="Exit Time" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{BF966A08-2F0D-4EDF-B8F1-8AE1B6F3E777}" name="Setup" dataDxfId="51"/>
+    <tableColumn id="10" xr3:uid="{96F859AD-064F-4F58-8A21-0BBF87787804}" name="Buy/Sell" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{03629D9B-54E5-4D94-A5F5-19B0A4870A02}" name="Intended Entry" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{572908EB-CFFA-4ADA-A9F2-2CF3F407EAFF}" name="Entry Price" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{10860968-EAAB-46AD-AC05-A42351171660}" name="SL Price" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{BDAD1E7B-27B2-4F4E-BEE1-2375C3998CA2}" name="Exit Price" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{606976D5-E521-49DC-AC74-F7729F5E6A65}" name="Highest Price" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{EFCFFCD8-00BD-4595-A51A-6F5662762B59}" name="Lowest Price" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{562E38EB-5373-4F2A-938E-97C3070A2715}" name="Price Before BE" dataDxfId="43"/>
+    <tableColumn id="18" xr3:uid="{85ADAF46-AD65-491A-9459-0E84F1CAF9F7}" name="Potential Price" dataDxfId="42"/>
+    <tableColumn id="19" xr3:uid="{3BCC0E76-C786-49E1-A360-D6614E0C4599}" name="Pattern SL" dataDxfId="41"/>
+    <tableColumn id="20" xr3:uid="{4DB96B20-11AE-4167-942E-9C92E652D3FE}" name="Retest Price" dataDxfId="40"/>
+    <tableColumn id="21" xr3:uid="{EF0EDC9F-DB0A-496F-B10E-6180D69910AB}" name="TP Hit" dataDxfId="39"/>
+    <tableColumn id="22" xr3:uid="{BECF23DC-C810-42DF-B709-E1AA34EAF6F0}" name="Back to BE" dataDxfId="38"/>
+    <tableColumn id="23" xr3:uid="{6EEC8EAF-3C43-4F64-8DCF-DFF9A442C689}" name="Volume Exit" dataDxfId="37"/>
+    <tableColumn id="24" xr3:uid="{ADFD78F0-4768-442D-A91F-249F272573EA}" name="Volume Exit RRR Reach" dataDxfId="36"/>
+    <tableColumn id="25" xr3:uid="{D7B03BEF-E4DF-41DC-BCE3-31F86F54B221}" name="Volume Exit BE" dataDxfId="35"/>
+    <tableColumn id="26" xr3:uid="{095DD6AD-968D-4726-947C-A97A9B3ABC03}" name="Candle Exit" dataDxfId="34"/>
+    <tableColumn id="27" xr3:uid="{21CAAFF7-E700-4F61-8B7C-8A1D828212D2}" name="Wick Exit" dataDxfId="33"/>
+    <tableColumn id="28" xr3:uid="{A3E50707-9733-48BA-863F-3ABAB4667806}" name="Price Behaviour" dataDxfId="32"/>
+    <tableColumn id="29" xr3:uid="{22D68781-1E6D-48ED-BF50-B69C83856864}" name="VPA" dataDxfId="31"/>
+    <tableColumn id="30" xr3:uid="{5CC00B9B-2F51-4E7C-9F9E-5329B6363318}" name="Secotor" dataDxfId="30"/>
+    <tableColumn id="31" xr3:uid="{E9AB9A9A-C0F4-4C71-8462-CFFA7033EB57}" name="Relative Volume" dataDxfId="29"/>
+    <tableColumn id="40" xr3:uid="{E9CBBDCD-8647-4AF7-97D4-8D1D14B5FD00}" name="Outcome" dataDxfId="28">
       <calculatedColumnFormula>IF(#REF!&lt;0, "LOSER", "WINNER")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{D34A8547-AF98-4C04-A1E1-0C1A61080962}" name="Daily Volume in Mil" dataDxfId="29"/>
-    <tableColumn id="33" xr3:uid="{39E43053-0EAA-4CA2-87C6-2805DCE7A6ED}" name="Catalyst" dataDxfId="28"/>
-    <tableColumn id="34" xr3:uid="{34AFC627-B66D-4CAD-9D31-EC18E2186CCB}" name="Percent Gain" dataDxfId="27"/>
-    <tableColumn id="35" xr3:uid="{65F53589-7755-4555-ACEE-B541C25E30C7}" name="Float" dataDxfId="26"/>
-    <tableColumn id="36" xr3:uid="{A9231791-356E-476C-9A35-51F7824732A6}" name="Short Float" dataDxfId="25"/>
-    <tableColumn id="37" xr3:uid="{980EF4ED-CA85-4924-9039-4C5B40FBC47D}" name="Picture" dataDxfId="24" dataCellStyle="היפר-קישור"/>
-    <tableColumn id="38" xr3:uid="{53C103CC-4AA0-4C2E-A6A9-6E0DE53C0CFD}" name="RRR in-trade" dataDxfId="23">
+    <tableColumn id="32" xr3:uid="{D34A8547-AF98-4C04-A1E1-0C1A61080962}" name="Daily Volume in Mil" dataDxfId="27"/>
+    <tableColumn id="33" xr3:uid="{39E43053-0EAA-4CA2-87C6-2805DCE7A6ED}" name="Catalyst" dataDxfId="26"/>
+    <tableColumn id="34" xr3:uid="{34AFC627-B66D-4CAD-9D31-EC18E2186CCB}" name="Percent Gain" dataDxfId="25"/>
+    <tableColumn id="35" xr3:uid="{65F53589-7755-4555-ACEE-B541C25E30C7}" name="Float" dataDxfId="24"/>
+    <tableColumn id="36" xr3:uid="{A9231791-356E-476C-9A35-51F7824732A6}" name="Short Float" dataDxfId="23"/>
+    <tableColumn id="37" xr3:uid="{980EF4ED-CA85-4924-9039-4C5B40FBC47D}" name="Picture" dataDxfId="22"/>
+    <tableColumn id="38" xr3:uid="{53C103CC-4AA0-4C2E-A6A9-6E0DE53C0CFD}" name="RRR in-trade" dataDxfId="21">
       <calculatedColumnFormula>IF(table2[[#This Row],[Buy/Sell]]="BUY",(table2[[#This Row],[Highest Price]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),(table2[[#This Row],[Entry Price]]-table2[[#This Row],[Lowest Price]])/(table2[[#This Row],[SL Price]]-table2[[#This Row],[Intended Entry]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{D3BE3FF1-0F36-4323-816D-72CF6C73A3A2}" name="Negative RRR in-trade" dataDxfId="22">
+    <tableColumn id="39" xr3:uid="{D3BE3FF1-0F36-4323-816D-72CF6C73A3A2}" name="Negative RRR in-trade" dataDxfId="20">
       <calculatedColumnFormula>IF(table2[[#This Row],[Buy/Sell]]="BUY",(table2[[#This Row],[Entry Price]]-table2[[#This Row],[Lowest Price]])/(table2[[#This Row],[SL Price]]-table2[[#This Row],[Intended Entry]]),(table2[[#This Row],[Entry Price]]-table2[[#This Row],[Highest Price]])/(table2[[#This Row],[SL Price]]-table2[[#This Row],[Intended Entry]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{7434F870-60A3-4709-A264-A253EBE2083C}" name="Time" dataDxfId="21">
+    <tableColumn id="42" xr3:uid="{7434F870-60A3-4709-A264-A253EBE2083C}" name="Time" dataDxfId="19">
       <calculatedColumnFormula>table2[[#This Row],[Exit Time]]-table2[[#This Row],[Entry Time]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{561C53A9-7D59-4084-8DD5-B4FE2CF96C21}" name="RRR Closing Price" dataDxfId="20">
+    <tableColumn id="43" xr3:uid="{561C53A9-7D59-4084-8DD5-B4FE2CF96C21}" name="RRR Closing Price" dataDxfId="18">
       <calculatedColumnFormula>IF(table2[[#This Row],[Retest Price]]&lt;&gt;FALSE,ROUND((table2[[#This Row],[Retest Price]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),4), "FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{AA026992-DC9A-4DF0-B64F-83D218758489}" name="Sum Gain" dataDxfId="19">
+    <tableColumn id="44" xr3:uid="{AA026992-DC9A-4DF0-B64F-83D218758489}" name="Sum Gain" dataDxfId="17">
       <calculatedColumnFormula>232</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" xr3:uid="{F755EB5E-3A19-42FC-9674-A597821C0DA0}" name="Hard RRR Before BE" dataDxfId="18">
+    <tableColumn id="45" xr3:uid="{F755EB5E-3A19-42FC-9674-A597821C0DA0}" name="Hard RRR Before BE" dataDxfId="16">
       <calculatedColumnFormula>IF(table2[[#This Row],[Price Before BE]]=FALSE,"FALSE",( table2[[#This Row],[Price Before BE]]-table2[[#This Row],[Intended Entry]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{01F5544A-F826-47B0-A343-938FD6D39D9D}" name="Missed RRR on Entry" dataDxfId="17">
+    <tableColumn id="46" xr3:uid="{01F5544A-F826-47B0-A343-938FD6D39D9D}" name="Missed RRR on Entry" dataDxfId="15">
       <calculatedColumnFormula>(IF(table2[[#This Row],[Buy/Sell]]="BUY",(table2[[#This Row],[Entry Price]]-table2[[#This Row],[SL Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),(table2[[#This Row],[SL Price]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[SL Price]]-table2[[#This Row],[Intended Entry]])))-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{A34C4608-8F75-45A6-B9FC-35159E125645}" name="Missed RRR" dataDxfId="16">
+    <tableColumn id="47" xr3:uid="{A34C4608-8F75-45A6-B9FC-35159E125645}" name="Missed RRR" dataDxfId="14">
       <calculatedColumnFormula>table2[[#This Row],[Missed RRR on Entry]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{4CDEF865-B953-43FE-9401-8BBCC40B4121}" name="RRR Potential" dataDxfId="15">
+    <tableColumn id="48" xr3:uid="{4CDEF865-B953-43FE-9401-8BBCC40B4121}" name="RRR Potential" dataDxfId="13">
       <calculatedColumnFormula>ROUND((table2[[#This Row],[Potential Price]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{6EDCBFF3-CE2F-4195-9A7E-18A79F18C780}" name="Hard RRR Potential" dataDxfId="14">
+    <tableColumn id="49" xr3:uid="{6EDCBFF3-CE2F-4195-9A7E-18A79F18C780}" name="Hard RRR Potential" dataDxfId="12">
       <calculatedColumnFormula>ROUND((table2[[#This Row],[Potential Price]]-table2[[#This Row],[Intended Entry]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" xr3:uid="{932CF254-ED3E-4D12-945A-7BE0720D20D3}" name="RRR difference" dataDxfId="13">
+    <tableColumn id="50" xr3:uid="{932CF254-ED3E-4D12-945A-7BE0720D20D3}" name="RRR difference" dataDxfId="11">
       <calculatedColumnFormula>table2[[#This Row],[RRR Potential]]-table2[[#This Row],[RRR Realized]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="51" xr3:uid="{F9B7DEAB-A97E-48C5-BD1D-C5D2311ACBB4}" name="RRR Realized" dataDxfId="12">
+    <tableColumn id="51" xr3:uid="{F9B7DEAB-A97E-48C5-BD1D-C5D2311ACBB4}" name="RRR Realized" dataDxfId="10">
       <calculatedColumnFormula>ROUND((table2[[#This Row],[Exit Price]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" xr3:uid="{9B488F6A-BD23-4974-B5B3-D0A2ADB2B6BA}" name=" Fast Reversal at 0" dataDxfId="11">
+    <tableColumn id="52" xr3:uid="{9B488F6A-BD23-4974-B5B3-D0A2ADB2B6BA}" name=" Fast Reversal at 0" dataDxfId="9">
       <calculatedColumnFormula>IF(AND((table2[[#This Row],[Back to BE]])=TRUE,(table2[[#This Row],[Price Behaviour]])="Fast Reversal"), 0-(table2[[#This Row],[Missed RRR on Entry]]),ROUND((table2[[#This Row],[Exit Price]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="53" xr3:uid="{ED99130D-971E-4225-B88B-2FC450026896}" name=" Fast Reversal at 1" dataDxfId="10">
+    <tableColumn id="53" xr3:uid="{ED99130D-971E-4225-B88B-2FC450026896}" name=" Fast Reversal at 1" dataDxfId="8">
       <calculatedColumnFormula>IF(AND((table2[[#This Row],[Hard RRR Potential]])&gt;=1,(table2[[#This Row],[Back to BE]])="True",(table2[[#This Row],[Price Behaviour]])="Fast Reversal"), 1-(table2[[#This Row],[Missed RRR on Entry]]),ROUND((table2[[#This Row],[Exit Price]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="54" xr3:uid="{8DCC55D8-C66B-4C47-AB03-A6D173284567}" name=" Fast Reversal at 1.5" dataDxfId="9">
+    <tableColumn id="54" xr3:uid="{8DCC55D8-C66B-4C47-AB03-A6D173284567}" name=" Fast Reversal at 1.5" dataDxfId="7">
       <calculatedColumnFormula>IF(AND((table2[[#This Row],[Hard RRR Potential]])&gt;=1.5,(table2[[#This Row],[Back to BE]])="True",(table2[[#This Row],[Price Behaviour]])="Fast Reversal"), 1.5-(table2[[#This Row],[Missed RRR on Entry]]),ROUND((table2[[#This Row],[Exit Price]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="55" xr3:uid="{191AC0F3-0D53-439D-AA59-173B06CDA845}" name=" Fast Reversal at 2" dataDxfId="8">
+    <tableColumn id="55" xr3:uid="{191AC0F3-0D53-439D-AA59-173B06CDA845}" name=" Fast Reversal at 2" dataDxfId="6">
       <calculatedColumnFormula>IF(AND((table2[[#This Row],[Hard RRR Potential]])&gt;=2,(table2[[#This Row],[Back to BE]])="True",(table2[[#This Row],[Price Behaviour]])="Fast Reversal"), 2-(table2[[#This Row],[Missed RRR on Entry]]),ROUND((table2[[#This Row],[Exit Price]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="56" xr3:uid="{4FD4E0EE-864C-4834-A970-B06CDBCD5D3E}" name=" with SL at pattern break" dataDxfId="7">
+    <tableColumn id="56" xr3:uid="{4FD4E0EE-864C-4834-A970-B06CDBCD5D3E}" name=" with SL at pattern break" dataDxfId="5">
       <calculatedColumnFormula>IF((table2[[#This Row],[Pattern SL]])&lt;&gt;FALSE,((table2[[#This Row],[Pattern SL]])-(table2[[#This Row],[Entry Price]]))/((table2[[#This Row],[Intended Entry]])-(table2[[#This Row],[SL Price]])),ROUND((table2[[#This Row],[Exit Price]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="57" xr3:uid="{41DB9732-8447-4B38-A6EC-187BB5F10645}" name=" with Volume Exit" dataDxfId="6">
+    <tableColumn id="57" xr3:uid="{41DB9732-8447-4B38-A6EC-187BB5F10645}" name=" with Volume Exit" dataDxfId="4">
       <calculatedColumnFormula>IF((AND(table2[[#This Row],[Volume Exit]]&lt;&gt;FALSE,table2[[#This Row],[Volume Exit RRR Reach]]=FALSE,((table2[[#This Row],[Volume Exit]])-(table2[[#This Row],[Intended Entry]]))/((table2[[#This Row],[Intended Entry]])-(table2[[#This Row],[SL Price]]))&lt;4)),(table2[[#This Row],[Volume Exit]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),ROUND((table2[[#This Row],[Exit Price]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="58" xr3:uid="{47B805DC-F955-4090-9107-A7D7ACB953B2}" name="RRR Wick Exit" dataDxfId="5">
+    <tableColumn id="58" xr3:uid="{47B805DC-F955-4090-9107-A7D7ACB953B2}" name="RRR Wick Exit" dataDxfId="3">
       <calculatedColumnFormula>IF(table2[[#This Row],[Wick Exit]]&lt;&gt;FALSE,IF(table2[[#This Row],[Buy/Sell]]="BUY",(table2[[#This Row],[Wick Exit]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),(table2[[#This Row],[Wick Exit]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[SL Price]]-table2[[#This Row],[Intended Entry]])),ROUND((table2[[#This Row],[Exit Price]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="59" xr3:uid="{05DB9AB7-80DE-421A-8306-91B44144027B}" name="RRR Candle Exit" dataDxfId="4">
+    <tableColumn id="59" xr3:uid="{05DB9AB7-80DE-421A-8306-91B44144027B}" name="RRR Candle Exit" dataDxfId="2">
       <calculatedColumnFormula>IF(table2[[#This Row],[Candle Exit]]&lt;&gt;FALSE,IF(table2[[#This Row],[Buy/Sell]]="BUY",(table2[[#This Row],[Candle Exit]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),(table2[[#This Row],[Candle Exit]]-table2[[#This Row],[Lowest Price]])/(table2[[#This Row],[SL Price]]-table2[[#This Row],[Intended Entry]])),ROUND((table2[[#This Row],[Exit Price]]-table2[[#This Row],[Entry Price]])/(table2[[#This Row],[Intended Entry]]-table2[[#This Row],[SL Price]]),4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="60" xr3:uid="{BE72D7A4-68EC-4476-8966-1AF6B46DF7C9}" name="RRR at 2.5" dataDxfId="3">
+    <tableColumn id="60" xr3:uid="{BE72D7A4-68EC-4476-8966-1AF6B46DF7C9}" name="RRR at 2.5" dataDxfId="1">
       <calculatedColumnFormula>IF(OR(AND(table2[[#This Row],[Hard RRR Potential]]&gt;=2.5,table2[[#This Row],[Volume Exit]]=FALSE,table2[[#This Row],[Wick Exit]]=FALSE),AND(table2[[#This Row],[Hard RRR Potential]]&gt;=2.5,table2[[#This Row],[Volume Exit RRR Reach]]&gt;=2.5,table2[[#This Row],[Wick Exit]]=FALSE)), 2.5-table2[[#This Row],[Missed RRR on Entry]],table2[[#This Row],[RRR Realized]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="61" xr3:uid="{9D17AE1F-A6D1-4DC6-A560-F37F1F9B1B08}" name="RRR at 3" dataDxfId="2">
+    <tableColumn id="61" xr3:uid="{9D17AE1F-A6D1-4DC6-A560-F37F1F9B1B08}" name="RRR at 3" dataDxfId="0">
       <calculatedColumnFormula>IF(OR(AND(table2[[#This Row],[Hard RRR Potential]]&gt;=3,table2[[#This Row],[Volume Exit]]=FALSE,table2[[#This Row],[Wick Exit]]=FALSE),AND(table2[[#This Row],[Hard RRR Potential]]&gt;=3,table2[[#This Row],[Volume Exit RRR Reach]]&gt;=3,table2[[#This Row],[Wick Exit]]=FALSE)), 3-table2[[#This Row],[Missed RRR on Entry]],table2[[#This Row],[RRR Realized]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11062,7 +11075,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11365,65 +11378,65 @@
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="48" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" customWidth="1"/>
+    <col min="8" max="8" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="43" max="48" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.65">
       <c r="A1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="H1" s="77" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="H1" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="75" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75" t="s">
+      <c r="M1" s="67"/>
+      <c r="N1" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="75"/>
+      <c r="O1" s="67"/>
       <c r="Q1" s="8" t="s">
         <v>82</v>
       </c>
@@ -11435,7 +11448,7 @@
       </c>
       <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="61">
         <v>43603</v>
       </c>
@@ -11484,7 +11497,7 @@
         <v>26536</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="62"/>
       <c r="B3" s="65"/>
       <c r="C3" s="65"/>
@@ -11518,7 +11531,7 @@
       </c>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="61">
         <v>43603</v>
       </c>
@@ -11559,7 +11572,7 @@
       </c>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="62"/>
       <c r="B5" s="65"/>
       <c r="C5" s="65"/>
@@ -11584,7 +11597,7 @@
       </c>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A6" s="61">
         <v>43603</v>
       </c>
@@ -11622,7 +11635,7 @@
       <c r="P6" s="59"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="62"/>
       <c r="B7" s="65"/>
       <c r="C7" s="65"/>
@@ -11659,7 +11672,7 @@
       </c>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="61">
         <v>43611</v>
       </c>
@@ -11701,7 +11714,7 @@
       <c r="Q8" s="5"/>
       <c r="S8" s="27"/>
     </row>
-    <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="62"/>
       <c r="B9" s="65"/>
       <c r="C9" s="65"/>
@@ -11737,7 +11750,7 @@
         <v>-298.28166666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="61">
         <v>43611</v>
       </c>
@@ -11777,7 +11790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="62"/>
       <c r="B11" s="65"/>
       <c r="C11" s="65"/>
@@ -11813,7 +11826,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="61">
         <v>43613</v>
       </c>
@@ -11853,7 +11866,7 @@
         <v>-1.1124999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="62"/>
       <c r="B13" s="65"/>
       <c r="C13" s="65"/>
@@ -11889,7 +11902,7 @@
         <v>-1.1124999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="61">
         <v>43614</v>
       </c>
@@ -11913,7 +11926,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="62"/>
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
@@ -11939,13 +11952,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="61"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
       <c r="H16" s="7" t="s">
         <v>88</v>
       </c>
@@ -11965,13 +11978,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="62"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
       <c r="H17" s="7" t="s">
         <v>86</v>
       </c>
@@ -11991,7 +12004,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="61"/>
       <c r="B18" s="63"/>
       <c r="C18" s="63"/>
@@ -12017,7 +12030,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="62"/>
       <c r="B19" s="65"/>
       <c r="C19" s="65"/>
@@ -12044,7 +12057,7 @@
       </c>
       <c r="O19" s="26"/>
     </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="61"/>
       <c r="B20" s="63"/>
       <c r="C20" s="63"/>
@@ -12071,7 +12084,7 @@
       </c>
       <c r="O20" s="46"/>
     </row>
-    <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="62"/>
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
@@ -12098,7 +12111,7 @@
       </c>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="61"/>
       <c r="B22" s="63"/>
       <c r="C22" s="63"/>
@@ -12106,7 +12119,7 @@
       <c r="E22" s="63"/>
       <c r="F22" s="64"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="62"/>
       <c r="B23" s="65"/>
       <c r="C23" s="65"/>
@@ -12114,7 +12127,7 @@
       <c r="E23" s="65"/>
       <c r="F23" s="66"/>
     </row>
-    <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="61"/>
       <c r="B24" s="63"/>
       <c r="C24" s="63"/>
@@ -12122,7 +12135,7 @@
       <c r="E24" s="63"/>
       <c r="F24" s="64"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="62"/>
       <c r="B25" s="65"/>
       <c r="C25" s="65"/>
@@ -12130,7 +12143,7 @@
       <c r="E25" s="65"/>
       <c r="F25" s="66"/>
     </row>
-    <row r="26" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="61"/>
       <c r="B26" s="63"/>
       <c r="C26" s="63"/>
@@ -12138,7 +12151,7 @@
       <c r="E26" s="63"/>
       <c r="F26" s="64"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="62"/>
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
@@ -12146,7 +12159,7 @@
       <c r="E27" s="65"/>
       <c r="F27" s="66"/>
     </row>
-    <row r="28" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="61"/>
       <c r="B28" s="63"/>
       <c r="C28" s="63"/>
@@ -12154,7 +12167,7 @@
       <c r="E28" s="63"/>
       <c r="F28" s="64"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="62"/>
       <c r="B29" s="65"/>
       <c r="C29" s="65"/>
@@ -12162,7 +12175,7 @@
       <c r="E29" s="65"/>
       <c r="F29" s="66"/>
     </row>
-    <row r="30" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="61"/>
       <c r="B30" s="63"/>
       <c r="C30" s="63"/>
@@ -12170,7 +12183,7 @@
       <c r="E30" s="63"/>
       <c r="F30" s="64"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="62"/>
       <c r="B31" s="65"/>
       <c r="C31" s="65"/>
@@ -12180,24 +12193,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:F27"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:F25"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:F31"/>
     <mergeCell ref="A28:A29"/>
@@ -12214,6 +12209,24 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B18:F19"/>
     <mergeCell ref="B16:F17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:F27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12227,69 +12240,70 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E10C8A-8522-4B7F-AC2F-01F05E12A6D2}">
   <sheetPr codeName="Worksheet______2"/>
-  <dimension ref="A1:BF106"/>
+  <dimension ref="A1:BI106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA2" sqref="BA2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
+    <col min="2" max="2" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.73046875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.86328125" customWidth="1"/>
+    <col min="18" max="18" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="24" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.7109375" customWidth="1"/>
-    <col min="35" max="35" width="8.42578125" customWidth="1"/>
-    <col min="36" max="36" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.140625" style="3" customWidth="1"/>
-    <col min="45" max="45" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.28515625" customWidth="1"/>
-    <col min="50" max="50" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.7109375" customWidth="1"/>
-    <col min="52" max="52" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.7109375" customWidth="1"/>
+    <col min="23" max="23" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="10.265625" customWidth="1"/>
+    <col min="35" max="35" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.73046875" customWidth="1"/>
+    <col min="38" max="38" width="8.3984375" customWidth="1"/>
+    <col min="39" max="39" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.3984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.1328125" style="3" customWidth="1"/>
+    <col min="48" max="48" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.265625" customWidth="1"/>
+    <col min="53" max="53" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.73046875" customWidth="1"/>
+    <col min="55" max="55" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12384,82 +12398,91 @@
         <v>138</v>
       </c>
       <c r="AF1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" t="s">
         <v>164</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>169</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>249</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>177</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AM1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>73</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>123</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>63</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>66</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>93</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>126</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>222</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>109</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>221</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>108</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>247</v>
       </c>
-      <c r="AW1" s="24" t="s">
+      <c r="AZ1" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="AX1" s="47" t="s">
+      <c r="BA1" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="AY1" s="20" t="s">
+      <c r="BB1" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="AZ1" s="20" t="s">
+      <c r="BC1" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="BA1" s="20" t="s">
+      <c r="BD1" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>187</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>179</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>224</v>
       </c>
@@ -12552,105 +12575,114 @@
       <c r="AE2" t="s">
         <v>137</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2">
+        <v>2</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0.67</v>
+      </c>
+      <c r="AI2" t="s">
         <v>165</v>
       </c>
-      <c r="AG2">
+      <c r="AJ2">
         <v>27.5</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <v>0.88700000000000001</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <v>0.4</v>
       </c>
-      <c r="AJ2" s="22" t="s">
+      <c r="AM2" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AN2" s="4">
         <f>IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Highest Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]))</f>
         <v>3.1749999999999972</v>
       </c>
-      <c r="AL2" s="19">
+      <c r="AO2" s="19">
         <f>IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]),(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Highest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]))</f>
         <v>-0.72499999999999998</v>
       </c>
-      <c r="AM2" s="4" t="str">
+      <c r="AP2" s="4" t="str">
         <f>IF(AND(TABLE1[[#This Row],[RRR Realized]]&lt;0.5,TABLE1[[#This Row],[RRR Realized]]&gt;-0.6),"BE",IF(TABLE1[[#This Row],[Gain/Loss]]&lt;0, "LOSER", "WINNER"))</f>
         <v>WINNER</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AQ2" s="4">
         <f>TABLE1[[#This Row],[Gain/Loss]]-TABLE1[[#This Row],[Comissions]]</f>
         <v>459.19</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AR2" s="3">
         <f>TABLE1[[#This Row],[Exit Time]]-TABLE1[[#This Row],[Entry Time]]</f>
         <v>1.736111111111116E-2</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AS2" s="4">
         <f>459.19</f>
         <v>459.19</v>
       </c>
-      <c r="AQ2" s="4">
+      <c r="AT2" s="4">
         <f>(IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[SL Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])))-1</f>
         <v>0.27499999999999991</v>
       </c>
-      <c r="AR2" s="4">
+      <c r="AU2" s="4">
         <f>ROUND((TABLE1[[#This Row],[Potential Price]]-TABLE1[[#This Row],[Intended Entry]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>3.45</v>
       </c>
-      <c r="AS2" s="19">
+      <c r="AV2" s="19">
         <f>TABLE1[[#This Row],[Missed RRR on Entry]]</f>
         <v>0.27499999999999991</v>
       </c>
-      <c r="AT2" s="19">
+      <c r="AW2" s="19">
         <f>ROUND((TABLE1[[#This Row],[In Trade Potential Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>3.1749999999999998</v>
       </c>
-      <c r="AU2" s="19">
+      <c r="AX2" s="19">
         <f>ROUND((TABLE1[[#This Row],[In Trade Potential Price]]-TABLE1[[#This Row],[Intended Entry]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>3.45</v>
       </c>
-      <c r="AV2" s="19">
+      <c r="AY2" s="19">
         <f>TABLE1[[#This Row],[RRR Potential in Trade]]-TABLE1[[#This Row],[RRR Realized]]</f>
         <v>0</v>
       </c>
-      <c r="AW2" s="25">
+      <c r="AZ2" s="25">
         <f>ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>3.1749999999999998</v>
       </c>
-      <c r="AX2" s="48">
+      <c r="BA2" s="48">
         <f>IF((TABLE1[[#This Row],[Pattern SL]])&lt;&gt;FALSE,((TABLE1[[#This Row],[Pattern SL]])-(TABLE1[[#This Row],[Entry Price]]))/((TABLE1[[#This Row],[Intended Entry]])-(TABLE1[[#This Row],[SL Price]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>3.1749999999999998</v>
       </c>
-      <c r="AY2" s="21">
+      <c r="BB2" s="21">
         <f>IF(TABLE1[[#This Row],[Volume Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Volume Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>1</v>
       </c>
-      <c r="AZ2" s="21">
+      <c r="BC2" s="21">
         <f>IF(TABLE1[[#This Row],[Wick Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>3.1749999999999998</v>
       </c>
-      <c r="BA2" s="21">
+      <c r="BD2" s="21">
         <f>IF( TABLE1[[#This Row],[Wick Exit]]&lt;&gt; FALSE,TABLE1[[#This Row],[RRR Wick Exit]],IF(TABLE1[[#This Row],[Volume Exit]]&lt;&gt; FALSE,TABLE1[[#This Row],[RRR Volume Exit]],TABLE1[[#This Row],[RRR Realized]]))</f>
         <v>1</v>
       </c>
-      <c r="BB2" s="21">
+      <c r="BE2" s="21">
         <f>IF(TABLE1[[#This Row],[Candle Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Candle Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Candle Exit]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>3.1749999999999998</v>
       </c>
-      <c r="BC2" s="4">
+      <c r="BF2" s="4">
         <f>IF(OR(AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=2.5,TABLE1[[#This Row],[Volume Exit]]=FALSE,TABLE1[[#This Row],[Wick Exit]]=FALSE),AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=2.5,TABLE1[[#This Row],[Volume Exit RRR Reach]]&gt;=2.5,TABLE1[[#This Row],[Wick Exit]]=FALSE)), 2.5-TABLE1[[#This Row],[Missed RRR on Entry]],TABLE1[[#This Row],[RRR Realized]])</f>
         <v>2.2250000000000001</v>
       </c>
-      <c r="BD2" s="4">
+      <c r="BG2" s="4">
         <f>IF(OR(AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=3,TABLE1[[#This Row],[Volume Exit]]=FALSE,TABLE1[[#This Row],[Wick Exit]]=FALSE),AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=3,TABLE1[[#This Row],[Volume Exit RRR Reach]]&gt;=3,TABLE1[[#This Row],[Wick Exit]]=FALSE)), 3-TABLE1[[#This Row],[Missed RRR on Entry]],TABLE1[[#This Row],[RRR Realized]])</f>
         <v>2.7250000000000001</v>
       </c>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-    </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>225</v>
       </c>
@@ -12736,105 +12768,114 @@
       <c r="AE3" t="s">
         <v>135</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>3.27</v>
+      </c>
+      <c r="AI3" t="s">
         <v>175</v>
       </c>
-      <c r="AG3">
+      <c r="AJ3">
         <v>4.28</v>
       </c>
-      <c r="AH3">
+      <c r="AK3">
         <v>3.44</v>
       </c>
-      <c r="AI3">
+      <c r="AL3">
         <v>94</v>
       </c>
-      <c r="AJ3" s="22" t="s">
+      <c r="AM3" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AN3" s="4">
         <f>IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Highest Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]))</f>
         <v>0.2</v>
       </c>
-      <c r="AL3" s="19">
+      <c r="AO3" s="19">
         <f>IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]),(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Highest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]))</f>
         <v>-1.0999999999999979</v>
       </c>
-      <c r="AM3" s="4" t="str">
+      <c r="AP3" s="4" t="str">
         <f>IF(AND(TABLE1[[#This Row],[RRR Realized]]&lt;0.5,TABLE1[[#This Row],[RRR Realized]]&gt;-0.6),"BE",IF(TABLE1[[#This Row],[Gain/Loss]]&lt;0, "LOSER", "WINNER"))</f>
         <v>LOSER</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AQ3" s="4">
         <f>TABLE1[[#This Row],[Gain/Loss]]-TABLE1[[#This Row],[Comissions]]</f>
         <v>-378.56</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AR3" s="3">
         <f>TABLE1[[#This Row],[Exit Time]]-TABLE1[[#This Row],[Entry Time]]</f>
         <v>3.4722222222222654E-3</v>
       </c>
-      <c r="AP3" s="4">
-        <f>TABLE1[[#This Row],[Net Gain/Loss]]+AP2</f>
+      <c r="AS3" s="4">
+        <f>TABLE1[[#This Row],[Net Gain/Loss]]+AS2</f>
         <v>80.63</v>
       </c>
-      <c r="AQ3" s="4">
+      <c r="AT3" s="4">
         <f>(IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[SL Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])))-1</f>
         <v>9.9999999999997868E-2</v>
       </c>
-      <c r="AR3" s="4">
+      <c r="AU3" s="4">
         <f>ROUND((TABLE1[[#This Row],[Potential Price]]-TABLE1[[#This Row],[Intended Entry]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>9.9</v>
       </c>
-      <c r="AS3" s="19">
+      <c r="AV3" s="19">
         <f>TABLE1[[#This Row],[Missed RRR on Entry]]</f>
         <v>9.9999999999997868E-2</v>
       </c>
-      <c r="AT3" s="19">
+      <c r="AW3" s="19">
         <f>ROUND((TABLE1[[#This Row],[In Trade Potential Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>0.2</v>
       </c>
-      <c r="AU3" s="19">
+      <c r="AX3" s="19">
         <f>ROUND((TABLE1[[#This Row],[In Trade Potential Price]]-TABLE1[[#This Row],[Intended Entry]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>0.3</v>
       </c>
-      <c r="AV3" s="19">
+      <c r="AY3" s="19">
         <f>TABLE1[[#This Row],[RRR Potential in Trade]]-TABLE1[[#This Row],[RRR Realized]]</f>
         <v>1.3499999999999999</v>
       </c>
-      <c r="AW3" s="25">
+      <c r="AZ3" s="25">
         <f>ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>-1.1499999999999999</v>
       </c>
-      <c r="AX3" s="48">
+      <c r="BA3" s="48">
         <f>IF((TABLE1[[#This Row],[Pattern SL]])&lt;&gt;FALSE,((TABLE1[[#This Row],[Pattern SL]])-(TABLE1[[#This Row],[Entry Price]]))/((TABLE1[[#This Row],[Intended Entry]])-(TABLE1[[#This Row],[SL Price]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>-1.1499999999999999</v>
       </c>
-      <c r="AY3" s="21">
+      <c r="BB3" s="21">
         <f>IF(TABLE1[[#This Row],[Volume Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Volume Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>-1.1499999999999999</v>
       </c>
-      <c r="AZ3" s="21">
+      <c r="BC3" s="21">
         <f>IF(TABLE1[[#This Row],[Wick Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>-1.1499999999999999</v>
       </c>
-      <c r="BA3" s="21">
+      <c r="BD3" s="21">
         <f>IF( TABLE1[[#This Row],[Wick Exit]]&lt;&gt; FALSE,TABLE1[[#This Row],[RRR Wick Exit]],IF(TABLE1[[#This Row],[Volume Exit]]&lt;&gt; FALSE,TABLE1[[#This Row],[RRR Volume Exit]],TABLE1[[#This Row],[RRR Realized]]))</f>
         <v>-1.1499999999999999</v>
       </c>
-      <c r="BB3" s="21">
+      <c r="BE3" s="21">
         <f>IF(TABLE1[[#This Row],[Candle Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Candle Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Candle Exit]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>-1.1499999999999999</v>
       </c>
-      <c r="BC3" s="4">
+      <c r="BF3" s="4">
         <f>IF(OR(AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=2.5,TABLE1[[#This Row],[Volume Exit]]=FALSE,TABLE1[[#This Row],[Wick Exit]]=FALSE),AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=2.5,TABLE1[[#This Row],[Volume Exit RRR Reach]]&gt;=2.5,TABLE1[[#This Row],[Wick Exit]]=FALSE)), 2.5-TABLE1[[#This Row],[Missed RRR on Entry]],TABLE1[[#This Row],[RRR Realized]])</f>
         <v>-1.1499999999999999</v>
       </c>
-      <c r="BD3" s="4">
+      <c r="BG3" s="4">
         <f>IF(OR(AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=3,TABLE1[[#This Row],[Volume Exit]]=FALSE,TABLE1[[#This Row],[Wick Exit]]=FALSE),AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=3,TABLE1[[#This Row],[Volume Exit RRR Reach]]&gt;=3,TABLE1[[#This Row],[Wick Exit]]=FALSE)), 3-TABLE1[[#This Row],[Missed RRR on Entry]],TABLE1[[#This Row],[RRR Realized]])</f>
         <v>-1.1499999999999999</v>
       </c>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>233</v>
       </c>
@@ -12921,105 +12962,114 @@
       <c r="AE4" t="s">
         <v>137</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>1.56</v>
+      </c>
+      <c r="AI4" t="s">
         <v>175</v>
       </c>
-      <c r="AG4">
+      <c r="AJ4">
         <v>21</v>
       </c>
-      <c r="AH4">
+      <c r="AK4">
         <v>1.63</v>
       </c>
-      <c r="AI4">
+      <c r="AL4">
         <v>1.75</v>
       </c>
-      <c r="AJ4" s="22" t="s">
+      <c r="AM4" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AN4" s="4">
         <f>IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Highest Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]))</f>
         <v>2.5000000000000071E-2</v>
       </c>
-      <c r="AL4" s="19">
+      <c r="AO4" s="19">
         <f>IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]),(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Highest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]))</f>
         <v>-0.94999999999999984</v>
       </c>
-      <c r="AM4" s="4" t="str">
+      <c r="AP4" s="4" t="str">
         <f>IF(AND(TABLE1[[#This Row],[RRR Realized]]&lt;0.5,TABLE1[[#This Row],[RRR Realized]]&gt;-0.6),"BE",IF(TABLE1[[#This Row],[Gain/Loss]]&lt;0, "LOSER", "WINNER"))</f>
         <v>LOSER</v>
       </c>
-      <c r="AN4" s="4">
+      <c r="AQ4" s="4">
         <f>TABLE1[[#This Row],[Gain/Loss]]-TABLE1[[#This Row],[Comissions]]</f>
         <v>-208.00333333333333</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AR4" s="3">
         <f>TABLE1[[#This Row],[Exit Time]]-TABLE1[[#This Row],[Entry Time]]</f>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AP4" s="4">
-        <f>TABLE1[[#This Row],[Net Gain/Loss]]+AP3</f>
+      <c r="AS4" s="4">
+        <f>TABLE1[[#This Row],[Net Gain/Loss]]+AS3</f>
         <v>-127.37333333333333</v>
       </c>
-      <c r="AQ4" s="4">
+      <c r="AT4" s="4">
         <f>(IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[SL Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])))-1</f>
         <v>-2.5000000000000022E-2</v>
       </c>
-      <c r="AR4" s="4">
+      <c r="AU4" s="4">
         <f>ROUND((TABLE1[[#This Row],[Potential Price]]-TABLE1[[#This Row],[Intended Entry]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>3.625</v>
       </c>
-      <c r="AS4" s="19">
+      <c r="AV4" s="19">
         <f>TABLE1[[#This Row],[Missed RRR on Entry]]</f>
         <v>-2.5000000000000022E-2</v>
       </c>
-      <c r="AT4" s="19">
+      <c r="AW4" s="19">
         <f>ROUND((TABLE1[[#This Row],[In Trade Potential Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AU4" s="19">
+      <c r="AX4" s="19">
         <f>ROUND((TABLE1[[#This Row],[In Trade Potential Price]]-TABLE1[[#This Row],[Intended Entry]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>0</v>
       </c>
-      <c r="AV4" s="19">
+      <c r="AY4" s="19">
         <f>TABLE1[[#This Row],[RRR Potential in Trade]]-TABLE1[[#This Row],[RRR Realized]]</f>
         <v>0.97499999999999998</v>
       </c>
-      <c r="AW4" s="25">
+      <c r="AZ4" s="25">
         <f>ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>-0.95</v>
       </c>
-      <c r="AX4" s="48">
+      <c r="BA4" s="48">
         <f>IF((TABLE1[[#This Row],[Pattern SL]])&lt;&gt;FALSE,((TABLE1[[#This Row],[Pattern SL]])-(TABLE1[[#This Row],[Entry Price]]))/((TABLE1[[#This Row],[Intended Entry]])-(TABLE1[[#This Row],[SL Price]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>-0.95</v>
       </c>
-      <c r="AY4" s="21">
+      <c r="BB4" s="21">
         <f>IF(TABLE1[[#This Row],[Volume Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Volume Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>-0.95</v>
       </c>
-      <c r="AZ4" s="21">
+      <c r="BC4" s="21">
         <f>IF(TABLE1[[#This Row],[Wick Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>-0.95</v>
       </c>
-      <c r="BA4" s="21">
+      <c r="BD4" s="21">
         <f>IF( TABLE1[[#This Row],[Wick Exit]]&lt;&gt; FALSE,TABLE1[[#This Row],[RRR Wick Exit]],IF(TABLE1[[#This Row],[Volume Exit]]&lt;&gt; FALSE,TABLE1[[#This Row],[RRR Volume Exit]],TABLE1[[#This Row],[RRR Realized]]))</f>
         <v>-0.95</v>
       </c>
-      <c r="BB4" s="21">
+      <c r="BE4" s="21">
         <f>IF(TABLE1[[#This Row],[Candle Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Candle Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Candle Exit]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>-0.95</v>
       </c>
-      <c r="BC4" s="4">
+      <c r="BF4" s="4">
         <f>IF(OR(AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=2.5,TABLE1[[#This Row],[Volume Exit]]=FALSE,TABLE1[[#This Row],[Wick Exit]]=FALSE),AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=2.5,TABLE1[[#This Row],[Volume Exit RRR Reach]]&gt;=2.5,TABLE1[[#This Row],[Wick Exit]]=FALSE)), 2.5-TABLE1[[#This Row],[Missed RRR on Entry]],TABLE1[[#This Row],[RRR Realized]])</f>
         <v>-0.95</v>
       </c>
-      <c r="BD4" s="4">
+      <c r="BG4" s="4">
         <f>IF(OR(AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=3,TABLE1[[#This Row],[Volume Exit]]=FALSE,TABLE1[[#This Row],[Wick Exit]]=FALSE),AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=3,TABLE1[[#This Row],[Volume Exit RRR Reach]]&gt;=3,TABLE1[[#This Row],[Wick Exit]]=FALSE)), 3-TABLE1[[#This Row],[Missed RRR on Entry]],TABLE1[[#This Row],[RRR Realized]])</f>
         <v>-0.95</v>
       </c>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>233</v>
       </c>
@@ -13112,105 +13162,114 @@
       <c r="AE5" t="s">
         <v>137</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH5">
+        <v>1.55</v>
+      </c>
+      <c r="AI5" t="s">
         <v>175</v>
       </c>
-      <c r="AG5">
+      <c r="AJ5">
         <v>21</v>
       </c>
-      <c r="AH5">
+      <c r="AK5">
         <v>1.92</v>
       </c>
-      <c r="AI5">
+      <c r="AL5">
         <v>1.75</v>
       </c>
-      <c r="AJ5" s="22" t="s">
+      <c r="AM5" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="AK5" s="4">
+      <c r="AN5" s="4">
         <f>IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Highest Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]))</f>
         <v>4.1249999999999947</v>
       </c>
-      <c r="AL5" s="19">
+      <c r="AO5" s="19">
         <f>IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]),(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Highest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]))</f>
         <v>-0.875</v>
       </c>
-      <c r="AM5" s="4" t="str">
+      <c r="AP5" s="4" t="str">
         <f>IF(AND(TABLE1[[#This Row],[RRR Realized]]&lt;0.5,TABLE1[[#This Row],[RRR Realized]]&gt;-0.6),"BE",IF(TABLE1[[#This Row],[Gain/Loss]]&lt;0, "LOSER", "WINNER"))</f>
         <v>WINNER</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AQ5" s="4">
         <f>TABLE1[[#This Row],[Gain/Loss]]-TABLE1[[#This Row],[Comissions]]</f>
         <v>487.99666666666667</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AR5" s="3">
         <f>TABLE1[[#This Row],[Exit Time]]-TABLE1[[#This Row],[Entry Time]]</f>
         <v>2.9861111111111116E-2</v>
       </c>
-      <c r="AP5" s="4">
-        <f>TABLE1[[#This Row],[Net Gain/Loss]]+AP4</f>
+      <c r="AS5" s="4">
+        <f>TABLE1[[#This Row],[Net Gain/Loss]]+AS4</f>
         <v>360.62333333333333</v>
       </c>
-      <c r="AQ5" s="4">
+      <c r="AT5" s="4">
         <f>(IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[SL Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])))-1</f>
         <v>0</v>
       </c>
-      <c r="AR5" s="4">
+      <c r="AU5" s="4">
         <f>ROUND((TABLE1[[#This Row],[Potential Price]]-TABLE1[[#This Row],[Intended Entry]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>4.125</v>
       </c>
-      <c r="AS5" s="19">
+      <c r="AV5" s="19">
         <f>TABLE1[[#This Row],[Missed RRR on Entry]]</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="19">
+      <c r="AW5" s="19">
         <f>ROUND((TABLE1[[#This Row],[In Trade Potential Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>4.125</v>
       </c>
-      <c r="AU5" s="19">
+      <c r="AX5" s="19">
         <f>ROUND((TABLE1[[#This Row],[In Trade Potential Price]]-TABLE1[[#This Row],[Intended Entry]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>4.125</v>
       </c>
-      <c r="AV5" s="19">
+      <c r="AY5" s="19">
         <f>TABLE1[[#This Row],[RRR Potential in Trade]]-TABLE1[[#This Row],[RRR Realized]]</f>
         <v>1.375</v>
       </c>
-      <c r="AW5" s="25">
+      <c r="AZ5" s="25">
         <f>ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>2.75</v>
       </c>
-      <c r="AX5" s="48">
+      <c r="BA5" s="48">
         <f>IF((TABLE1[[#This Row],[Pattern SL]])&lt;&gt;FALSE,((TABLE1[[#This Row],[Pattern SL]])-(TABLE1[[#This Row],[Entry Price]]))/((TABLE1[[#This Row],[Intended Entry]])-(TABLE1[[#This Row],[SL Price]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>2.75</v>
       </c>
-      <c r="AY5" s="21">
+      <c r="BB5" s="21">
         <f>IF(TABLE1[[#This Row],[Volume Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Volume Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>1.4999999999999973</v>
       </c>
-      <c r="AZ5" s="21">
+      <c r="BC5" s="21">
         <f>IF(TABLE1[[#This Row],[Wick Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>2.75</v>
       </c>
-      <c r="BA5" s="21">
+      <c r="BD5" s="21">
         <f>IF( TABLE1[[#This Row],[Wick Exit]]&lt;&gt; FALSE,TABLE1[[#This Row],[RRR Wick Exit]],IF(TABLE1[[#This Row],[Volume Exit]]&lt;&gt; FALSE,TABLE1[[#This Row],[RRR Volume Exit]],TABLE1[[#This Row],[RRR Realized]]))</f>
         <v>1.4999999999999973</v>
       </c>
-      <c r="BB5" s="21">
+      <c r="BE5" s="21">
         <f>IF(TABLE1[[#This Row],[Candle Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Candle Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Candle Exit]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>2.75</v>
       </c>
-      <c r="BC5" s="4">
+      <c r="BF5" s="4">
         <f>IF(OR(AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=2.5,TABLE1[[#This Row],[Volume Exit]]=FALSE,TABLE1[[#This Row],[Wick Exit]]=FALSE),AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=2.5,TABLE1[[#This Row],[Volume Exit RRR Reach]]&gt;=2.5,TABLE1[[#This Row],[Wick Exit]]=FALSE)), 2.5-TABLE1[[#This Row],[Missed RRR on Entry]],TABLE1[[#This Row],[RRR Realized]])</f>
         <v>2.5</v>
       </c>
-      <c r="BD5" s="4">
+      <c r="BG5" s="4">
         <f>IF(OR(AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=3,TABLE1[[#This Row],[Volume Exit]]=FALSE,TABLE1[[#This Row],[Wick Exit]]=FALSE),AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=3,TABLE1[[#This Row],[Volume Exit RRR Reach]]&gt;=3,TABLE1[[#This Row],[Wick Exit]]=FALSE)), 3-TABLE1[[#This Row],[Missed RRR on Entry]],TABLE1[[#This Row],[RRR Realized]])</f>
         <v>2.75</v>
       </c>
-      <c r="BE5" s="4"/>
-      <c r="BF5" s="4"/>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>233</v>
       </c>
@@ -13297,2025 +13356,2034 @@
       <c r="AE6" t="s">
         <v>137</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH6">
+        <v>1.55</v>
+      </c>
+      <c r="AI6" t="s">
         <v>165</v>
       </c>
-      <c r="AG6">
+      <c r="AJ6">
         <v>21</v>
       </c>
-      <c r="AH6">
+      <c r="AK6">
         <v>1.62</v>
       </c>
-      <c r="AI6">
+      <c r="AL6">
         <v>1.75</v>
       </c>
-      <c r="AJ6" s="22" t="s">
+      <c r="AM6" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AN6" s="4">
         <f>IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Highest Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]))</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL6" s="19">
+      <c r="AO6" s="19">
         <f>IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]),(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[Highest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]]))</f>
         <v>-1.075</v>
       </c>
-      <c r="AM6" s="4" t="str">
+      <c r="AP6" s="4" t="str">
         <f>IF(AND(TABLE1[[#This Row],[RRR Realized]]&lt;0.5,TABLE1[[#This Row],[RRR Realized]]&gt;-0.6),"BE",IF(TABLE1[[#This Row],[Gain/Loss]]&lt;0, "LOSER", "WINNER"))</f>
         <v>LOSER</v>
       </c>
-      <c r="AN6" s="4">
+      <c r="AQ6" s="4">
         <f>TABLE1[[#This Row],[Gain/Loss]]-TABLE1[[#This Row],[Comissions]]</f>
         <v>-218.00333333333333</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AR6" s="3">
         <f>TABLE1[[#This Row],[Exit Time]]-TABLE1[[#This Row],[Entry Time]]</f>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="AP6" s="4">
-        <f>TABLE1[[#This Row],[Net Gain/Loss]]+AP5</f>
+      <c r="AS6" s="4">
+        <f>TABLE1[[#This Row],[Net Gain/Loss]]+AS5</f>
         <v>142.62</v>
       </c>
-      <c r="AQ6" s="4">
+      <c r="AT6" s="4">
         <f>(IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Entry Price]]-TABLE1[[#This Row],[SL Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])))-1</f>
         <v>-2.5000000000000022E-2</v>
       </c>
-      <c r="AR6" s="4">
+      <c r="AU6" s="4">
         <f>ROUND((TABLE1[[#This Row],[Potential Price]]-TABLE1[[#This Row],[Intended Entry]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>3.75</v>
       </c>
-      <c r="AS6" s="19">
+      <c r="AV6" s="19">
         <f>TABLE1[[#This Row],[Missed RRR on Entry]]</f>
         <v>-2.5000000000000022E-2</v>
       </c>
-      <c r="AT6" s="19">
+      <c r="AW6" s="19">
         <f>ROUND((TABLE1[[#This Row],[In Trade Potential Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AU6" s="19">
+      <c r="AX6" s="19">
         <f>ROUND((TABLE1[[#This Row],[In Trade Potential Price]]-TABLE1[[#This Row],[Intended Entry]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>0</v>
       </c>
-      <c r="AV6" s="19">
+      <c r="AY6" s="19">
         <f>TABLE1[[#This Row],[RRR Potential in Trade]]-TABLE1[[#This Row],[RRR Realized]]</f>
         <v>1.0999999999999999</v>
       </c>
-      <c r="AW6" s="25">
+      <c r="AZ6" s="25">
         <f>ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4)</f>
         <v>-1.075</v>
       </c>
-      <c r="AX6" s="48">
+      <c r="BA6" s="48">
         <f>IF((TABLE1[[#This Row],[Pattern SL]])&lt;&gt;FALSE,((TABLE1[[#This Row],[Pattern SL]])-(TABLE1[[#This Row],[Entry Price]]))/((TABLE1[[#This Row],[Intended Entry]])-(TABLE1[[#This Row],[SL Price]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>-1.075</v>
       </c>
-      <c r="AY6" s="21">
+      <c r="BB6" s="21">
         <f>IF(TABLE1[[#This Row],[Volume Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Volume Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>-1.075</v>
       </c>
-      <c r="AZ6" s="21">
+      <c r="BC6" s="21">
         <f>IF(TABLE1[[#This Row],[Wick Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Wick Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>-1.075</v>
       </c>
-      <c r="BA6" s="21">
+      <c r="BD6" s="21">
         <f>IF( TABLE1[[#This Row],[Wick Exit]]&lt;&gt; FALSE,TABLE1[[#This Row],[RRR Wick Exit]],IF(TABLE1[[#This Row],[Volume Exit]]&lt;&gt; FALSE,TABLE1[[#This Row],[RRR Volume Exit]],TABLE1[[#This Row],[RRR Realized]]))</f>
         <v>-1.075</v>
       </c>
-      <c r="BB6" s="21">
+      <c r="BE6" s="21">
         <f>IF(TABLE1[[#This Row],[Candle Exit]]&lt;&gt;FALSE,IF(TABLE1[[#This Row],[Buy/Sell]]="BUY",(TABLE1[[#This Row],[Candle Exit]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),(TABLE1[[#This Row],[Candle Exit]]-TABLE1[[#This Row],[Lowest Price]])/(TABLE1[[#This Row],[SL Price]]-TABLE1[[#This Row],[Intended Entry]])),ROUND((TABLE1[[#This Row],[Exit Price]]-TABLE1[[#This Row],[Entry Price]])/(TABLE1[[#This Row],[Intended Entry]]-TABLE1[[#This Row],[SL Price]]),4))</f>
         <v>-1.075</v>
       </c>
-      <c r="BC6" s="4">
+      <c r="BF6" s="4">
         <f>IF(OR(AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=2.5,TABLE1[[#This Row],[Volume Exit]]=FALSE,TABLE1[[#This Row],[Wick Exit]]=FALSE),AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=2.5,TABLE1[[#This Row],[Volume Exit RRR Reach]]&gt;=2.5,TABLE1[[#This Row],[Wick Exit]]=FALSE)), 2.5-TABLE1[[#This Row],[Missed RRR on Entry]],TABLE1[[#This Row],[RRR Realized]])</f>
         <v>-1.075</v>
       </c>
-      <c r="BD6" s="4">
+      <c r="BG6" s="4">
         <f>IF(OR(AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=3,TABLE1[[#This Row],[Volume Exit]]=FALSE,TABLE1[[#This Row],[Wick Exit]]=FALSE),AND(TABLE1[[#This Row],[Hard RRR Potential]]&gt;=3,TABLE1[[#This Row],[Volume Exit RRR Reach]]&gt;=3,TABLE1[[#This Row],[Wick Exit]]=FALSE)), 3-TABLE1[[#This Row],[Missed RRR on Entry]],TABLE1[[#This Row],[RRR Realized]])</f>
         <v>-1.075</v>
       </c>
-      <c r="BE6" s="4"/>
-      <c r="BF6" s="4"/>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
       <c r="G7" s="4"/>
       <c r="H7" s="15"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="4"/>
+      <c r="AM7" s="22"/>
       <c r="AN7" s="4"/>
-      <c r="AO7" s="3"/>
+      <c r="AO7" s="19"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="19"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
       <c r="AV7" s="19"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="21"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="21"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="19"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="48"/>
       <c r="BB7" s="21"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
       <c r="BF7" s="4"/>
-    </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
       <c r="G8" s="4"/>
       <c r="H8" s="15"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="4"/>
+      <c r="AM8" s="22"/>
       <c r="AN8" s="4"/>
-      <c r="AO8" s="3"/>
+      <c r="AO8" s="19"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="19"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
       <c r="AV8" s="19"/>
-      <c r="AW8" s="25"/>
-      <c r="AX8" s="48"/>
-      <c r="AY8" s="21"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="21"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="19"/>
+      <c r="AZ8" s="25"/>
+      <c r="BA8" s="48"/>
       <c r="BB8" s="21"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="21"/>
+      <c r="BE8" s="21"/>
       <c r="BF8" s="4"/>
-    </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
       <c r="G9" s="4"/>
       <c r="H9" s="15"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="4"/>
+      <c r="AM9" s="22"/>
       <c r="AN9" s="4"/>
-      <c r="AO9" s="3"/>
+      <c r="AO9" s="19"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="19"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
       <c r="AV9" s="19"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="48"/>
       <c r="BB9" s="21"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
       <c r="BF9" s="4"/>
-    </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG9" s="4"/>
+      <c r="BH9" s="4"/>
+      <c r="BI9" s="4"/>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
       <c r="G10" s="4"/>
       <c r="H10" s="15"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="4"/>
+      <c r="AM10" s="22"/>
       <c r="AN10" s="4"/>
-      <c r="AO10" s="3"/>
+      <c r="AO10" s="19"/>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="19"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
       <c r="AV10" s="19"/>
-      <c r="AW10" s="25"/>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="21"/>
-      <c r="AZ10" s="21"/>
-      <c r="BA10" s="21"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="25"/>
+      <c r="BA10" s="48"/>
       <c r="BB10" s="21"/>
-      <c r="BC10" s="4"/>
-      <c r="BD10" s="4"/>
-      <c r="BE10" s="4"/>
+      <c r="BC10" s="21"/>
+      <c r="BD10" s="21"/>
+      <c r="BE10" s="21"/>
       <c r="BF10" s="4"/>
-    </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
       <c r="G11" s="4"/>
       <c r="H11" s="15"/>
-      <c r="AJ11" s="22"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="4"/>
+      <c r="AM11" s="22"/>
       <c r="AN11" s="4"/>
-      <c r="AO11" s="3"/>
+      <c r="AO11" s="19"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
-      <c r="AU11" s="19"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
       <c r="AV11" s="19"/>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="21"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="19"/>
+      <c r="AZ11" s="25"/>
+      <c r="BA11" s="48"/>
       <c r="BB11" s="21"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="21"/>
+      <c r="BE11" s="21"/>
       <c r="BF11" s="4"/>
-    </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4"/>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
       <c r="G12" s="4"/>
       <c r="H12" s="15"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="52"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="3"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="52"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="19"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
       <c r="AV12" s="19"/>
-      <c r="AW12" s="25"/>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="21"/>
-      <c r="AZ12" s="21"/>
-      <c r="BA12" s="21"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="25"/>
+      <c r="BA12" s="48"/>
+      <c r="BB12" s="21"/>
+      <c r="BC12" s="21"/>
+      <c r="BD12" s="21"/>
       <c r="BE12" s="4"/>
       <c r="BF12" s="4"/>
-    </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="4"/>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
       <c r="G13" s="4"/>
       <c r="H13" s="15"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="52"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="3"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="52"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="19"/>
-      <c r="AT13" s="19"/>
-      <c r="AU13" s="19"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
       <c r="AV13" s="19"/>
-      <c r="AW13" s="25"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="21"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="19"/>
+      <c r="AZ13" s="25"/>
+      <c r="BA13" s="48"/>
+      <c r="BB13" s="21"/>
+      <c r="BC13" s="21"/>
+      <c r="BD13" s="21"/>
       <c r="BE13" s="4"/>
       <c r="BF13" s="4"/>
-    </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
       <c r="G14" s="4"/>
       <c r="H14" s="15"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="52"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="3"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="52"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="19"/>
-      <c r="AT14" s="19"/>
-      <c r="AU14" s="19"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
       <c r="AV14" s="19"/>
-      <c r="AW14" s="25"/>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4"/>
-      <c r="BD14" s="4"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="19"/>
+      <c r="AZ14" s="25"/>
+      <c r="BA14" s="48"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
       <c r="BE14" s="4"/>
       <c r="BF14" s="4"/>
-    </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
       <c r="G15" s="4"/>
       <c r="H15" s="15"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="52"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="3"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="52"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="19"/>
-      <c r="AU15" s="19"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
       <c r="AV15" s="19"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="48"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="4"/>
-      <c r="BD15" s="4"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="19"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="48"/>
+      <c r="BB15" s="21"/>
+      <c r="BC15" s="21"/>
+      <c r="BD15" s="21"/>
       <c r="BE15" s="4"/>
       <c r="BF15" s="4"/>
-    </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
       <c r="G16" s="4"/>
       <c r="H16" s="15"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="4"/>
+      <c r="AM16" s="22"/>
       <c r="AN16" s="4"/>
-      <c r="AO16" s="3"/>
+      <c r="AO16" s="19"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
-      <c r="AU16" s="19"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
       <c r="AV16" s="19"/>
-      <c r="AW16" s="25"/>
-      <c r="AX16" s="48"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="21"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="19"/>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="48"/>
       <c r="BB16" s="21"/>
-      <c r="BC16" s="4"/>
-      <c r="BD16" s="4"/>
-      <c r="BE16" s="4"/>
+      <c r="BC16" s="21"/>
+      <c r="BD16" s="21"/>
+      <c r="BE16" s="21"/>
       <c r="BF16" s="4"/>
-    </row>
-    <row r="17" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+    </row>
+    <row r="17" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G17" s="4"/>
       <c r="H17" s="15"/>
-      <c r="AJ17" s="22"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="4"/>
+      <c r="AM17" s="22"/>
       <c r="AN17" s="4"/>
-      <c r="AO17" s="3"/>
+      <c r="AO17" s="19"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
-      <c r="AU17" s="19"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
       <c r="AV17" s="19"/>
-      <c r="AW17" s="25"/>
-      <c r="AX17" s="48"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="25"/>
+      <c r="BA17" s="48"/>
       <c r="BB17" s="21"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="21"/>
+      <c r="BE17" s="21"/>
       <c r="BF17" s="4"/>
-    </row>
-    <row r="18" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+    </row>
+    <row r="18" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G18" s="4"/>
       <c r="H18" s="15"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="4"/>
+      <c r="AM18" s="22"/>
       <c r="AN18" s="4"/>
-      <c r="AO18" s="3"/>
+      <c r="AO18" s="19"/>
       <c r="AP18" s="4"/>
       <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="19"/>
-      <c r="AU18" s="19"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
       <c r="AV18" s="19"/>
-      <c r="AW18" s="25"/>
-      <c r="AX18" s="48"/>
-      <c r="AY18" s="21"/>
-      <c r="AZ18" s="21"/>
-      <c r="BA18" s="21"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="19"/>
+      <c r="AZ18" s="25"/>
+      <c r="BA18" s="48"/>
       <c r="BB18" s="21"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
+      <c r="BC18" s="21"/>
+      <c r="BD18" s="21"/>
+      <c r="BE18" s="21"/>
       <c r="BF18" s="4"/>
-    </row>
-    <row r="19" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+    </row>
+    <row r="19" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G19" s="4"/>
       <c r="H19" s="15"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="4"/>
+      <c r="AM19" s="22"/>
       <c r="AN19" s="4"/>
-      <c r="AO19" s="3"/>
+      <c r="AO19" s="19"/>
       <c r="AP19" s="4"/>
       <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="19"/>
-      <c r="AU19" s="19"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
       <c r="AV19" s="19"/>
-      <c r="AW19" s="25"/>
-      <c r="AX19" s="48"/>
-      <c r="AY19" s="21"/>
-      <c r="AZ19" s="21"/>
-      <c r="BA19" s="21"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="25"/>
+      <c r="BA19" s="48"/>
       <c r="BB19" s="21"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
+      <c r="BC19" s="21"/>
+      <c r="BD19" s="21"/>
+      <c r="BE19" s="21"/>
       <c r="BF19" s="4"/>
-    </row>
-    <row r="20" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+    </row>
+    <row r="20" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G20" s="4"/>
       <c r="H20" s="15"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="4"/>
+      <c r="AM20" s="22"/>
       <c r="AN20" s="4"/>
-      <c r="AO20" s="3"/>
+      <c r="AO20" s="19"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="19"/>
-      <c r="AU20" s="19"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
       <c r="AV20" s="19"/>
-      <c r="AW20" s="25"/>
-      <c r="AX20" s="48"/>
-      <c r="AY20" s="21"/>
-      <c r="AZ20" s="21"/>
-      <c r="BA20" s="21"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="25"/>
+      <c r="BA20" s="48"/>
       <c r="BB20" s="21"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
+      <c r="BC20" s="21"/>
+      <c r="BD20" s="21"/>
+      <c r="BE20" s="21"/>
       <c r="BF20" s="4"/>
-    </row>
-    <row r="21" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="BG20" s="4"/>
+      <c r="BH20" s="4"/>
+      <c r="BI20" s="4"/>
+    </row>
+    <row r="21" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G21" s="4"/>
       <c r="H21" s="15"/>
-      <c r="AJ21" s="22"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="4"/>
+      <c r="AM21" s="22"/>
       <c r="AN21" s="4"/>
-      <c r="AO21" s="3"/>
+      <c r="AO21" s="19"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="19"/>
-      <c r="AT21" s="19"/>
-      <c r="AU21" s="19"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
       <c r="AV21" s="19"/>
-      <c r="AW21" s="25"/>
-      <c r="AX21" s="48"/>
-      <c r="AY21" s="21"/>
-      <c r="AZ21" s="21"/>
-      <c r="BA21" s="21"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="19"/>
+      <c r="AZ21" s="25"/>
+      <c r="BA21" s="48"/>
       <c r="BB21" s="21"/>
-      <c r="BC21" s="4"/>
-      <c r="BD21" s="4"/>
-      <c r="BE21" s="4"/>
+      <c r="BC21" s="21"/>
+      <c r="BD21" s="21"/>
+      <c r="BE21" s="21"/>
       <c r="BF21" s="4"/>
-    </row>
-    <row r="22" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="BG21" s="4"/>
+      <c r="BH21" s="4"/>
+      <c r="BI21" s="4"/>
+    </row>
+    <row r="22" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G22" s="4"/>
       <c r="H22" s="15"/>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="4"/>
+      <c r="AM22" s="22"/>
       <c r="AN22" s="4"/>
-      <c r="AO22" s="3"/>
+      <c r="AO22" s="19"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="19"/>
-      <c r="AU22" s="19"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
       <c r="AV22" s="19"/>
-      <c r="AW22" s="25"/>
-      <c r="AX22" s="48"/>
-      <c r="AY22" s="21"/>
-      <c r="AZ22" s="21"/>
-      <c r="BA22" s="21"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="25"/>
+      <c r="BA22" s="48"/>
       <c r="BB22" s="21"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
+      <c r="BC22" s="21"/>
+      <c r="BD22" s="21"/>
+      <c r="BE22" s="21"/>
       <c r="BF22" s="4"/>
-    </row>
-    <row r="23" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="4"/>
+    </row>
+    <row r="23" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G23" s="4"/>
       <c r="H23" s="15"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="4"/>
+      <c r="AM23" s="22"/>
       <c r="AN23" s="4"/>
-      <c r="AO23" s="3"/>
+      <c r="AO23" s="19"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="19"/>
-      <c r="AT23" s="19"/>
-      <c r="AU23" s="19"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
       <c r="AV23" s="19"/>
-      <c r="AW23" s="25"/>
-      <c r="AX23" s="48"/>
-      <c r="AY23" s="21"/>
-      <c r="AZ23" s="21"/>
-      <c r="BA23" s="21"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="25"/>
+      <c r="BA23" s="48"/>
+      <c r="BB23" s="21"/>
+      <c r="BC23" s="21"/>
+      <c r="BD23" s="21"/>
       <c r="BE23" s="4"/>
       <c r="BF23" s="4"/>
-    </row>
-    <row r="24" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+    </row>
+    <row r="24" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G24" s="4"/>
       <c r="H24" s="15"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="4"/>
+      <c r="AM24" s="22"/>
       <c r="AN24" s="4"/>
-      <c r="AO24" s="3"/>
+      <c r="AO24" s="19"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="19"/>
-      <c r="AT24" s="19"/>
-      <c r="AU24" s="19"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
       <c r="AV24" s="19"/>
-      <c r="AW24" s="25"/>
-      <c r="AX24" s="48"/>
-      <c r="AY24" s="21"/>
-      <c r="AZ24" s="21"/>
-      <c r="BA24" s="21"/>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="4"/>
-      <c r="BD24" s="4"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="25"/>
+      <c r="BA24" s="48"/>
+      <c r="BB24" s="21"/>
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="21"/>
       <c r="BE24" s="4"/>
       <c r="BF24" s="4"/>
-    </row>
-    <row r="25" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="4"/>
+    </row>
+    <row r="25" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G25" s="4"/>
       <c r="H25" s="15"/>
-      <c r="AJ25" s="22"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="4"/>
+      <c r="AM25" s="22"/>
       <c r="AN25" s="4"/>
-      <c r="AO25" s="3"/>
+      <c r="AO25" s="19"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
-      <c r="AS25" s="19"/>
-      <c r="AT25" s="19"/>
-      <c r="AU25" s="19"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
       <c r="AV25" s="19"/>
-      <c r="AW25" s="25"/>
-      <c r="AX25" s="48"/>
-      <c r="AY25" s="21"/>
-      <c r="AZ25" s="21"/>
-      <c r="BA25" s="21"/>
-      <c r="BB25" s="4"/>
-      <c r="BC25" s="4"/>
-      <c r="BD25" s="4"/>
-    </row>
-    <row r="26" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="25"/>
+      <c r="BA25" s="48"/>
+      <c r="BB25" s="21"/>
+      <c r="BC25" s="21"/>
+      <c r="BD25" s="21"/>
+      <c r="BE25" s="4"/>
+      <c r="BF25" s="4"/>
+      <c r="BG25" s="4"/>
+    </row>
+    <row r="26" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G26" s="4"/>
       <c r="H26" s="15"/>
-      <c r="AJ26" s="22"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="4"/>
+      <c r="AM26" s="22"/>
       <c r="AN26" s="4"/>
-      <c r="AO26" s="3"/>
+      <c r="AO26" s="19"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-      <c r="AS26" s="19"/>
-      <c r="AT26" s="19"/>
-      <c r="AU26" s="19"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="4"/>
+      <c r="AU26" s="4"/>
       <c r="AV26" s="19"/>
-      <c r="AW26" s="25"/>
-      <c r="AX26" s="48"/>
-      <c r="AY26" s="21"/>
-      <c r="AZ26" s="21"/>
-      <c r="BA26" s="21"/>
-      <c r="BB26" s="4"/>
-      <c r="BC26" s="4"/>
-      <c r="BD26" s="4"/>
-    </row>
-    <row r="27" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="25"/>
+      <c r="BA26" s="48"/>
+      <c r="BB26" s="21"/>
+      <c r="BC26" s="21"/>
+      <c r="BD26" s="21"/>
+      <c r="BE26" s="4"/>
+      <c r="BF26" s="4"/>
+      <c r="BG26" s="4"/>
+    </row>
+    <row r="27" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G27" s="4"/>
       <c r="H27" s="15"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="4"/>
+      <c r="AM27" s="22"/>
       <c r="AN27" s="4"/>
-      <c r="AO27" s="3"/>
+      <c r="AO27" s="19"/>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="19"/>
-      <c r="AT27" s="19"/>
-      <c r="AU27" s="19"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
       <c r="AV27" s="19"/>
-      <c r="AW27" s="25"/>
-      <c r="AX27" s="48"/>
-      <c r="AY27" s="21"/>
-      <c r="AZ27" s="21"/>
-      <c r="BA27" s="21"/>
-      <c r="BB27" s="4"/>
-      <c r="BC27" s="4"/>
-      <c r="BD27" s="4"/>
-    </row>
-    <row r="28" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="25"/>
+      <c r="BA27" s="48"/>
+      <c r="BB27" s="21"/>
+      <c r="BC27" s="21"/>
+      <c r="BD27" s="21"/>
+      <c r="BE27" s="4"/>
+      <c r="BF27" s="4"/>
+      <c r="BG27" s="4"/>
+    </row>
+    <row r="28" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G28" s="4"/>
       <c r="H28" s="15"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="4"/>
+      <c r="AM28" s="22"/>
       <c r="AN28" s="4"/>
-      <c r="AO28" s="3"/>
+      <c r="AO28" s="19"/>
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="19"/>
-      <c r="AT28" s="19"/>
-      <c r="AU28" s="19"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="4"/>
+      <c r="AT28" s="4"/>
+      <c r="AU28" s="4"/>
       <c r="AV28" s="19"/>
-      <c r="AW28" s="25"/>
-      <c r="AX28" s="48"/>
-      <c r="AY28" s="21"/>
-      <c r="AZ28" s="21"/>
-      <c r="BA28" s="21"/>
-      <c r="BB28" s="4"/>
-      <c r="BC28" s="4"/>
-      <c r="BD28" s="4"/>
-    </row>
-    <row r="29" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="25"/>
+      <c r="BA28" s="48"/>
+      <c r="BB28" s="21"/>
+      <c r="BC28" s="21"/>
+      <c r="BD28" s="21"/>
+      <c r="BE28" s="4"/>
+      <c r="BF28" s="4"/>
+      <c r="BG28" s="4"/>
+    </row>
+    <row r="29" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G29" s="4"/>
       <c r="H29" s="15"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="4"/>
+      <c r="AM29" s="22"/>
       <c r="AN29" s="4"/>
-      <c r="AO29" s="3"/>
+      <c r="AO29" s="19"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="19"/>
-      <c r="AT29" s="19"/>
-      <c r="AU29" s="19"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
       <c r="AV29" s="19"/>
-      <c r="AW29" s="25"/>
-      <c r="AX29" s="48"/>
-      <c r="AY29" s="21"/>
-      <c r="AZ29" s="21"/>
-      <c r="BA29" s="21"/>
-      <c r="BB29" s="4"/>
-      <c r="BC29" s="4"/>
-      <c r="BD29" s="4"/>
-    </row>
-    <row r="30" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="19"/>
+      <c r="AZ29" s="25"/>
+      <c r="BA29" s="48"/>
+      <c r="BB29" s="21"/>
+      <c r="BC29" s="21"/>
+      <c r="BD29" s="21"/>
+      <c r="BE29" s="4"/>
+      <c r="BF29" s="4"/>
+      <c r="BG29" s="4"/>
+    </row>
+    <row r="30" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G30" s="4"/>
       <c r="H30" s="15"/>
-      <c r="AJ30" s="22"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="19"/>
-      <c r="AM30" s="4"/>
+      <c r="AM30" s="22"/>
       <c r="AN30" s="4"/>
-      <c r="AO30" s="3"/>
+      <c r="AO30" s="19"/>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
-      <c r="AR30" s="4"/>
-      <c r="AS30" s="19"/>
-      <c r="AT30" s="19"/>
-      <c r="AU30" s="19"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="4"/>
+      <c r="AT30" s="4"/>
+      <c r="AU30" s="4"/>
       <c r="AV30" s="19"/>
-      <c r="AW30" s="25"/>
-      <c r="AX30" s="48"/>
-      <c r="AY30" s="21"/>
-      <c r="AZ30" s="21"/>
-      <c r="BA30" s="21"/>
-      <c r="BB30" s="4"/>
-      <c r="BC30" s="4"/>
-      <c r="BD30" s="4"/>
-    </row>
-    <row r="31" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="19"/>
+      <c r="AY30" s="19"/>
+      <c r="AZ30" s="25"/>
+      <c r="BA30" s="48"/>
+      <c r="BB30" s="21"/>
+      <c r="BC30" s="21"/>
+      <c r="BD30" s="21"/>
+      <c r="BE30" s="4"/>
+      <c r="BF30" s="4"/>
+      <c r="BG30" s="4"/>
+    </row>
+    <row r="31" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G31" s="4"/>
       <c r="H31" s="15"/>
-      <c r="AJ31" s="22"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="19"/>
-      <c r="AM31" s="4"/>
+      <c r="AM31" s="22"/>
       <c r="AN31" s="4"/>
-      <c r="AO31" s="3"/>
+      <c r="AO31" s="19"/>
       <c r="AP31" s="4"/>
       <c r="AQ31" s="4"/>
-      <c r="AR31" s="4"/>
-      <c r="AS31" s="19"/>
-      <c r="AT31" s="19"/>
-      <c r="AU31" s="19"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="4"/>
+      <c r="AT31" s="4"/>
+      <c r="AU31" s="4"/>
       <c r="AV31" s="19"/>
-      <c r="AW31" s="25"/>
-      <c r="AX31" s="48"/>
-      <c r="AY31" s="21"/>
-      <c r="AZ31" s="21"/>
-      <c r="BA31" s="21"/>
-      <c r="BB31" s="4"/>
-      <c r="BC31" s="4"/>
-      <c r="BD31" s="4"/>
-    </row>
-    <row r="32" spans="7:58" x14ac:dyDescent="0.25">
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="19"/>
+      <c r="AZ31" s="25"/>
+      <c r="BA31" s="48"/>
+      <c r="BB31" s="21"/>
+      <c r="BC31" s="21"/>
+      <c r="BD31" s="21"/>
+      <c r="BE31" s="4"/>
+      <c r="BF31" s="4"/>
+      <c r="BG31" s="4"/>
+    </row>
+    <row r="32" spans="7:61" x14ac:dyDescent="0.45">
       <c r="G32" s="4"/>
       <c r="H32" s="15"/>
-      <c r="AJ32" s="22"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="19"/>
-      <c r="AM32" s="4"/>
+      <c r="AM32" s="22"/>
       <c r="AN32" s="4"/>
-      <c r="AO32" s="3"/>
+      <c r="AO32" s="19"/>
       <c r="AP32" s="4"/>
       <c r="AQ32" s="4"/>
-      <c r="AR32" s="4"/>
-      <c r="AS32" s="19"/>
-      <c r="AT32" s="19"/>
-      <c r="AU32" s="19"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="4"/>
+      <c r="AT32" s="4"/>
+      <c r="AU32" s="4"/>
       <c r="AV32" s="19"/>
-      <c r="AW32" s="25"/>
-      <c r="AX32" s="48"/>
-      <c r="AY32" s="21"/>
-      <c r="AZ32" s="21"/>
-      <c r="BA32" s="21"/>
-      <c r="BB32" s="4"/>
-      <c r="BC32" s="4"/>
-      <c r="BD32" s="4"/>
-    </row>
-    <row r="33" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="19"/>
+      <c r="AZ32" s="25"/>
+      <c r="BA32" s="48"/>
+      <c r="BB32" s="21"/>
+      <c r="BC32" s="21"/>
+      <c r="BD32" s="21"/>
+      <c r="BE32" s="4"/>
+      <c r="BF32" s="4"/>
+      <c r="BG32" s="4"/>
+    </row>
+    <row r="33" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G33" s="4"/>
       <c r="H33" s="15"/>
-      <c r="AJ33" s="22"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="19"/>
-      <c r="AM33" s="4"/>
+      <c r="AM33" s="22"/>
       <c r="AN33" s="4"/>
-      <c r="AO33" s="3"/>
+      <c r="AO33" s="19"/>
       <c r="AP33" s="4"/>
       <c r="AQ33" s="4"/>
-      <c r="AR33" s="4"/>
-      <c r="AS33" s="19"/>
-      <c r="AT33" s="19"/>
-      <c r="AU33" s="19"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="4"/>
+      <c r="AT33" s="4"/>
+      <c r="AU33" s="4"/>
       <c r="AV33" s="19"/>
-      <c r="AW33" s="25"/>
-      <c r="AX33" s="48"/>
-      <c r="AY33" s="21"/>
-      <c r="AZ33" s="21"/>
-      <c r="BA33" s="21"/>
-      <c r="BB33" s="4"/>
-      <c r="BC33" s="4"/>
-      <c r="BD33" s="4"/>
-    </row>
-    <row r="34" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="AW33" s="19"/>
+      <c r="AX33" s="19"/>
+      <c r="AY33" s="19"/>
+      <c r="AZ33" s="25"/>
+      <c r="BA33" s="48"/>
+      <c r="BB33" s="21"/>
+      <c r="BC33" s="21"/>
+      <c r="BD33" s="21"/>
+      <c r="BE33" s="4"/>
+      <c r="BF33" s="4"/>
+      <c r="BG33" s="4"/>
+    </row>
+    <row r="34" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G34" s="4"/>
       <c r="H34" s="15"/>
-      <c r="AJ34" s="22"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="19"/>
-      <c r="AM34" s="4"/>
+      <c r="AM34" s="22"/>
       <c r="AN34" s="4"/>
-      <c r="AO34" s="3"/>
+      <c r="AO34" s="19"/>
       <c r="AP34" s="4"/>
       <c r="AQ34" s="4"/>
-      <c r="AR34" s="4"/>
-      <c r="AS34" s="19"/>
-      <c r="AT34" s="19"/>
-      <c r="AU34" s="19"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="4"/>
+      <c r="AT34" s="4"/>
+      <c r="AU34" s="4"/>
       <c r="AV34" s="19"/>
-      <c r="AW34" s="25"/>
-      <c r="AX34" s="48"/>
-      <c r="AY34" s="21"/>
-      <c r="AZ34" s="21"/>
-      <c r="BA34" s="21"/>
-      <c r="BB34" s="4"/>
-      <c r="BC34" s="4"/>
-      <c r="BD34" s="4"/>
-    </row>
-    <row r="35" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="19"/>
+      <c r="AZ34" s="25"/>
+      <c r="BA34" s="48"/>
+      <c r="BB34" s="21"/>
+      <c r="BC34" s="21"/>
+      <c r="BD34" s="21"/>
+      <c r="BE34" s="4"/>
+      <c r="BF34" s="4"/>
+      <c r="BG34" s="4"/>
+    </row>
+    <row r="35" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G35" s="4"/>
       <c r="H35" s="15"/>
-      <c r="AJ35" s="22"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="19"/>
-      <c r="AM35" s="4"/>
+      <c r="AM35" s="22"/>
       <c r="AN35" s="4"/>
-      <c r="AO35" s="3"/>
+      <c r="AO35" s="19"/>
       <c r="AP35" s="4"/>
       <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="19"/>
-      <c r="AT35" s="19"/>
-      <c r="AU35" s="19"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
       <c r="AV35" s="19"/>
-      <c r="AW35" s="25"/>
-      <c r="AX35" s="48"/>
-      <c r="AY35" s="21"/>
-      <c r="AZ35" s="21"/>
-      <c r="BA35" s="21"/>
-      <c r="BB35" s="4"/>
-      <c r="BC35" s="4"/>
-      <c r="BD35" s="4"/>
-    </row>
-    <row r="36" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="AW35" s="19"/>
+      <c r="AX35" s="19"/>
+      <c r="AY35" s="19"/>
+      <c r="AZ35" s="25"/>
+      <c r="BA35" s="48"/>
+      <c r="BB35" s="21"/>
+      <c r="BC35" s="21"/>
+      <c r="BD35" s="21"/>
+      <c r="BE35" s="4"/>
+      <c r="BF35" s="4"/>
+      <c r="BG35" s="4"/>
+    </row>
+    <row r="36" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G36" s="4"/>
       <c r="H36" s="15"/>
-      <c r="AJ36" s="22"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="19"/>
-      <c r="AM36" s="4"/>
+      <c r="AM36" s="22"/>
       <c r="AN36" s="4"/>
-      <c r="AO36" s="3"/>
+      <c r="AO36" s="19"/>
       <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="19"/>
-      <c r="AT36" s="19"/>
-      <c r="AU36" s="19"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
       <c r="AV36" s="19"/>
-      <c r="AW36" s="25"/>
-      <c r="AX36" s="48"/>
-      <c r="AY36" s="21"/>
-      <c r="AZ36" s="21"/>
-      <c r="BA36" s="21"/>
-      <c r="BB36" s="4"/>
-      <c r="BC36" s="4"/>
-      <c r="BD36" s="4"/>
-    </row>
-    <row r="37" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="AW36" s="19"/>
+      <c r="AX36" s="19"/>
+      <c r="AY36" s="19"/>
+      <c r="AZ36" s="25"/>
+      <c r="BA36" s="48"/>
+      <c r="BB36" s="21"/>
+      <c r="BC36" s="21"/>
+      <c r="BD36" s="21"/>
+      <c r="BE36" s="4"/>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="4"/>
+    </row>
+    <row r="37" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G37" s="4"/>
       <c r="H37" s="15"/>
-      <c r="AJ37" s="22"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="19"/>
-      <c r="AM37" s="4"/>
+      <c r="AM37" s="22"/>
       <c r="AN37" s="4"/>
-      <c r="AO37" s="3"/>
+      <c r="AO37" s="19"/>
       <c r="AP37" s="4"/>
       <c r="AQ37" s="4"/>
-      <c r="AR37" s="4"/>
-      <c r="AS37" s="19"/>
-      <c r="AT37" s="19"/>
-      <c r="AU37" s="19"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="4"/>
+      <c r="AT37" s="4"/>
+      <c r="AU37" s="4"/>
       <c r="AV37" s="19"/>
-      <c r="AW37" s="25"/>
-      <c r="AX37" s="48"/>
-      <c r="AY37" s="21"/>
-      <c r="AZ37" s="21"/>
-      <c r="BA37" s="21"/>
-      <c r="BB37" s="4"/>
-      <c r="BC37" s="4"/>
-      <c r="BD37" s="4"/>
-    </row>
-    <row r="38" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="AW37" s="19"/>
+      <c r="AX37" s="19"/>
+      <c r="AY37" s="19"/>
+      <c r="AZ37" s="25"/>
+      <c r="BA37" s="48"/>
+      <c r="BB37" s="21"/>
+      <c r="BC37" s="21"/>
+      <c r="BD37" s="21"/>
+      <c r="BE37" s="4"/>
+      <c r="BF37" s="4"/>
+      <c r="BG37" s="4"/>
+    </row>
+    <row r="38" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G38" s="4"/>
       <c r="H38" s="15"/>
-      <c r="AJ38" s="22"/>
-      <c r="AK38" s="4"/>
-      <c r="AL38" s="19"/>
-      <c r="AM38" s="4"/>
+      <c r="AM38" s="22"/>
       <c r="AN38" s="4"/>
-      <c r="AO38" s="3"/>
+      <c r="AO38" s="19"/>
       <c r="AP38" s="4"/>
       <c r="AQ38" s="4"/>
-      <c r="AR38" s="4"/>
-      <c r="AS38" s="19"/>
-      <c r="AT38" s="19"/>
-      <c r="AU38" s="19"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="4"/>
+      <c r="AT38" s="4"/>
+      <c r="AU38" s="4"/>
       <c r="AV38" s="19"/>
-      <c r="AW38" s="25"/>
-      <c r="AX38" s="48"/>
-      <c r="AY38" s="21"/>
-      <c r="AZ38" s="4"/>
-      <c r="BA38" s="4"/>
-      <c r="BB38" s="4"/>
+      <c r="AW38" s="19"/>
+      <c r="AX38" s="19"/>
+      <c r="AY38" s="19"/>
+      <c r="AZ38" s="25"/>
+      <c r="BA38" s="48"/>
+      <c r="BB38" s="21"/>
       <c r="BC38" s="4"/>
       <c r="BD38" s="4"/>
-    </row>
-    <row r="39" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE38" s="4"/>
+      <c r="BF38" s="4"/>
+      <c r="BG38" s="4"/>
+    </row>
+    <row r="39" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G39" s="4"/>
       <c r="H39" s="15"/>
-      <c r="AJ39" s="22"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="4"/>
+      <c r="AM39" s="22"/>
       <c r="AN39" s="4"/>
-      <c r="AO39" s="3"/>
+      <c r="AO39" s="19"/>
       <c r="AP39" s="4"/>
       <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="19"/>
-      <c r="AT39" s="19"/>
-      <c r="AU39" s="19"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4"/>
+      <c r="AU39" s="4"/>
       <c r="AV39" s="19"/>
-      <c r="AW39" s="25"/>
-      <c r="AX39" s="48"/>
-      <c r="AY39" s="21"/>
-      <c r="AZ39" s="4"/>
-      <c r="BA39" s="4"/>
-      <c r="BB39" s="4"/>
+      <c r="AW39" s="19"/>
+      <c r="AX39" s="19"/>
+      <c r="AY39" s="19"/>
+      <c r="AZ39" s="25"/>
+      <c r="BA39" s="48"/>
+      <c r="BB39" s="21"/>
       <c r="BC39" s="4"/>
       <c r="BD39" s="4"/>
-    </row>
-    <row r="40" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE39" s="4"/>
+      <c r="BF39" s="4"/>
+      <c r="BG39" s="4"/>
+    </row>
+    <row r="40" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G40" s="4"/>
       <c r="H40" s="15"/>
-      <c r="AJ40" s="22"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="19"/>
-      <c r="AM40" s="4"/>
+      <c r="AM40" s="22"/>
       <c r="AN40" s="4"/>
-      <c r="AO40" s="3"/>
+      <c r="AO40" s="19"/>
       <c r="AP40" s="4"/>
       <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
-      <c r="AS40" s="19"/>
-      <c r="AT40" s="19"/>
-      <c r="AU40" s="19"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="4"/>
+      <c r="AU40" s="4"/>
       <c r="AV40" s="19"/>
-      <c r="AW40" s="25"/>
-      <c r="AX40" s="48"/>
-      <c r="AY40" s="21"/>
-      <c r="AZ40" s="4"/>
-      <c r="BA40" s="4"/>
-      <c r="BB40" s="4"/>
+      <c r="AW40" s="19"/>
+      <c r="AX40" s="19"/>
+      <c r="AY40" s="19"/>
+      <c r="AZ40" s="25"/>
+      <c r="BA40" s="48"/>
+      <c r="BB40" s="21"/>
       <c r="BC40" s="4"/>
       <c r="BD40" s="4"/>
-    </row>
-    <row r="41" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE40" s="4"/>
+      <c r="BF40" s="4"/>
+      <c r="BG40" s="4"/>
+    </row>
+    <row r="41" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G41" s="4"/>
       <c r="H41" s="15"/>
-      <c r="AJ41" s="22"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="19"/>
-      <c r="AM41" s="4"/>
+      <c r="AM41" s="22"/>
       <c r="AN41" s="4"/>
-      <c r="AO41" s="3"/>
+      <c r="AO41" s="19"/>
       <c r="AP41" s="4"/>
       <c r="AQ41" s="4"/>
-      <c r="AR41" s="4"/>
-      <c r="AS41" s="19"/>
-      <c r="AT41" s="19"/>
-      <c r="AU41" s="19"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="4"/>
+      <c r="AT41" s="4"/>
+      <c r="AU41" s="4"/>
       <c r="AV41" s="19"/>
-      <c r="AW41" s="25"/>
-      <c r="AX41" s="48"/>
-      <c r="AY41" s="21"/>
-      <c r="AZ41" s="4"/>
-      <c r="BA41" s="4"/>
-      <c r="BB41" s="4"/>
+      <c r="AW41" s="19"/>
+      <c r="AX41" s="19"/>
+      <c r="AY41" s="19"/>
+      <c r="AZ41" s="25"/>
+      <c r="BA41" s="48"/>
+      <c r="BB41" s="21"/>
       <c r="BC41" s="4"/>
       <c r="BD41" s="4"/>
-    </row>
-    <row r="42" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE41" s="4"/>
+      <c r="BF41" s="4"/>
+      <c r="BG41" s="4"/>
+    </row>
+    <row r="42" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G42" s="4"/>
       <c r="H42" s="15"/>
-      <c r="AJ42" s="22"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="19"/>
-      <c r="AM42" s="4"/>
+      <c r="AM42" s="22"/>
       <c r="AN42" s="4"/>
-      <c r="AO42" s="3"/>
+      <c r="AO42" s="19"/>
       <c r="AP42" s="4"/>
       <c r="AQ42" s="4"/>
-      <c r="AR42" s="4"/>
-      <c r="AS42" s="19"/>
-      <c r="AT42" s="19"/>
-      <c r="AU42" s="19"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="4"/>
+      <c r="AT42" s="4"/>
+      <c r="AU42" s="4"/>
       <c r="AV42" s="19"/>
-      <c r="AW42" s="25"/>
-      <c r="AX42" s="48"/>
-      <c r="AY42" s="21"/>
-      <c r="AZ42" s="4"/>
-      <c r="BA42" s="4"/>
-      <c r="BB42" s="4"/>
+      <c r="AW42" s="19"/>
+      <c r="AX42" s="19"/>
+      <c r="AY42" s="19"/>
+      <c r="AZ42" s="25"/>
+      <c r="BA42" s="48"/>
+      <c r="BB42" s="21"/>
       <c r="BC42" s="4"/>
       <c r="BD42" s="4"/>
-    </row>
-    <row r="43" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE42" s="4"/>
+      <c r="BF42" s="4"/>
+      <c r="BG42" s="4"/>
+    </row>
+    <row r="43" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G43" s="4"/>
       <c r="H43" s="15"/>
-      <c r="AJ43" s="22"/>
-      <c r="AK43" s="4"/>
-      <c r="AL43" s="19"/>
-      <c r="AM43" s="4"/>
+      <c r="AM43" s="22"/>
       <c r="AN43" s="4"/>
-      <c r="AO43" s="3"/>
+      <c r="AO43" s="19"/>
       <c r="AP43" s="4"/>
       <c r="AQ43" s="4"/>
-      <c r="AR43" s="4"/>
-      <c r="AS43" s="19"/>
-      <c r="AT43" s="19"/>
-      <c r="AU43" s="19"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="4"/>
+      <c r="AT43" s="4"/>
+      <c r="AU43" s="4"/>
       <c r="AV43" s="19"/>
-      <c r="AW43" s="25"/>
-      <c r="AX43" s="48"/>
-      <c r="AY43" s="21"/>
-      <c r="AZ43" s="4"/>
-      <c r="BA43" s="4"/>
-      <c r="BB43" s="4"/>
+      <c r="AW43" s="19"/>
+      <c r="AX43" s="19"/>
+      <c r="AY43" s="19"/>
+      <c r="AZ43" s="25"/>
+      <c r="BA43" s="48"/>
+      <c r="BB43" s="21"/>
       <c r="BC43" s="4"/>
       <c r="BD43" s="4"/>
-    </row>
-    <row r="44" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE43" s="4"/>
+      <c r="BF43" s="4"/>
+      <c r="BG43" s="4"/>
+    </row>
+    <row r="44" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
-      <c r="AJ44" s="22"/>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="19"/>
-      <c r="AM44" s="4"/>
+      <c r="AM44" s="22"/>
       <c r="AN44" s="4"/>
-      <c r="AO44" s="3"/>
+      <c r="AO44" s="19"/>
       <c r="AP44" s="4"/>
       <c r="AQ44" s="4"/>
-      <c r="AR44" s="4"/>
-      <c r="AS44" s="19"/>
-      <c r="AT44" s="19"/>
-      <c r="AU44" s="19"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
       <c r="AV44" s="19"/>
-      <c r="AW44" s="25"/>
-      <c r="AX44" s="48"/>
-      <c r="AY44" s="21"/>
-      <c r="AZ44" s="4"/>
-      <c r="BA44" s="4"/>
-      <c r="BB44" s="4"/>
+      <c r="AW44" s="19"/>
+      <c r="AX44" s="19"/>
+      <c r="AY44" s="19"/>
+      <c r="AZ44" s="25"/>
+      <c r="BA44" s="48"/>
+      <c r="BB44" s="21"/>
       <c r="BC44" s="4"/>
       <c r="BD44" s="4"/>
-    </row>
-    <row r="45" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE44" s="4"/>
+      <c r="BF44" s="4"/>
+      <c r="BG44" s="4"/>
+    </row>
+    <row r="45" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
-      <c r="AJ45" s="22"/>
-      <c r="AK45" s="4"/>
-      <c r="AL45" s="19"/>
-      <c r="AM45" s="4"/>
+      <c r="AM45" s="22"/>
       <c r="AN45" s="4"/>
-      <c r="AO45" s="3"/>
+      <c r="AO45" s="19"/>
       <c r="AP45" s="4"/>
       <c r="AQ45" s="4"/>
-      <c r="AR45" s="4"/>
-      <c r="AS45" s="19"/>
-      <c r="AT45" s="19"/>
-      <c r="AU45" s="19"/>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="4"/>
+      <c r="AT45" s="4"/>
+      <c r="AU45" s="4"/>
       <c r="AV45" s="19"/>
-      <c r="AW45" s="25"/>
-      <c r="AX45" s="48"/>
-      <c r="AY45" s="21"/>
-      <c r="AZ45" s="4"/>
-      <c r="BA45" s="4"/>
-      <c r="BB45" s="4"/>
+      <c r="AW45" s="19"/>
+      <c r="AX45" s="19"/>
+      <c r="AY45" s="19"/>
+      <c r="AZ45" s="25"/>
+      <c r="BA45" s="48"/>
+      <c r="BB45" s="21"/>
       <c r="BC45" s="4"/>
       <c r="BD45" s="4"/>
-    </row>
-    <row r="46" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE45" s="4"/>
+      <c r="BF45" s="4"/>
+      <c r="BG45" s="4"/>
+    </row>
+    <row r="46" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G46" s="4"/>
       <c r="H46" s="15"/>
-      <c r="AJ46" s="22"/>
-      <c r="AK46" s="4"/>
-      <c r="AL46" s="19"/>
-      <c r="AM46" s="4"/>
+      <c r="AM46" s="22"/>
       <c r="AN46" s="4"/>
-      <c r="AO46" s="3"/>
+      <c r="AO46" s="19"/>
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
-      <c r="AR46" s="4"/>
-      <c r="AS46" s="19"/>
-      <c r="AT46" s="19"/>
-      <c r="AU46" s="19"/>
+      <c r="AR46" s="3"/>
+      <c r="AS46" s="4"/>
+      <c r="AT46" s="4"/>
+      <c r="AU46" s="4"/>
       <c r="AV46" s="19"/>
-      <c r="AW46" s="25"/>
-      <c r="AX46" s="48"/>
-      <c r="AY46" s="21"/>
-      <c r="AZ46" s="4"/>
-      <c r="BA46" s="4"/>
-      <c r="BB46" s="4"/>
+      <c r="AW46" s="19"/>
+      <c r="AX46" s="19"/>
+      <c r="AY46" s="19"/>
+      <c r="AZ46" s="25"/>
+      <c r="BA46" s="48"/>
+      <c r="BB46" s="21"/>
       <c r="BC46" s="4"/>
       <c r="BD46" s="4"/>
-    </row>
-    <row r="47" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE46" s="4"/>
+      <c r="BF46" s="4"/>
+      <c r="BG46" s="4"/>
+    </row>
+    <row r="47" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G47" s="4"/>
       <c r="H47" s="15"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="4"/>
-      <c r="AL47" s="19"/>
-      <c r="AM47" s="4"/>
+      <c r="AM47" s="22"/>
       <c r="AN47" s="4"/>
-      <c r="AO47" s="3"/>
+      <c r="AO47" s="19"/>
       <c r="AP47" s="4"/>
       <c r="AQ47" s="4"/>
-      <c r="AR47" s="4"/>
-      <c r="AS47" s="19"/>
-      <c r="AT47" s="19"/>
-      <c r="AU47" s="19"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="4"/>
+      <c r="AT47" s="4"/>
+      <c r="AU47" s="4"/>
       <c r="AV47" s="19"/>
-      <c r="AW47" s="25"/>
-      <c r="AX47" s="48"/>
-      <c r="AY47" s="21"/>
-      <c r="AZ47" s="4"/>
-      <c r="BA47" s="4"/>
-      <c r="BB47" s="4"/>
+      <c r="AW47" s="19"/>
+      <c r="AX47" s="19"/>
+      <c r="AY47" s="19"/>
+      <c r="AZ47" s="25"/>
+      <c r="BA47" s="48"/>
+      <c r="BB47" s="21"/>
       <c r="BC47" s="4"/>
       <c r="BD47" s="4"/>
-    </row>
-    <row r="48" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE47" s="4"/>
+      <c r="BF47" s="4"/>
+      <c r="BG47" s="4"/>
+    </row>
+    <row r="48" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G48" s="4"/>
       <c r="H48" s="15"/>
       <c r="U48" s="27"/>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="4"/>
-      <c r="AL48" s="19"/>
-      <c r="AM48" s="4"/>
+      <c r="AM48" s="22"/>
       <c r="AN48" s="4"/>
-      <c r="AO48" s="3"/>
+      <c r="AO48" s="19"/>
       <c r="AP48" s="4"/>
       <c r="AQ48" s="4"/>
-      <c r="AR48" s="4"/>
-      <c r="AS48" s="19"/>
-      <c r="AT48" s="19"/>
-      <c r="AU48" s="19"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="4"/>
+      <c r="AT48" s="4"/>
+      <c r="AU48" s="4"/>
       <c r="AV48" s="19"/>
-      <c r="AW48" s="25"/>
-      <c r="AX48" s="48"/>
-      <c r="AY48" s="21"/>
-      <c r="AZ48" s="4"/>
-      <c r="BA48" s="4"/>
-      <c r="BB48" s="4"/>
+      <c r="AW48" s="19"/>
+      <c r="AX48" s="19"/>
+      <c r="AY48" s="19"/>
+      <c r="AZ48" s="25"/>
+      <c r="BA48" s="48"/>
+      <c r="BB48" s="21"/>
       <c r="BC48" s="4"/>
       <c r="BD48" s="4"/>
-    </row>
-    <row r="49" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE48" s="4"/>
+      <c r="BF48" s="4"/>
+      <c r="BG48" s="4"/>
+    </row>
+    <row r="49" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G49" s="4"/>
       <c r="H49" s="15"/>
-      <c r="AJ49" s="22"/>
-      <c r="AK49" s="4"/>
-      <c r="AL49" s="19"/>
-      <c r="AM49" s="4"/>
+      <c r="AM49" s="22"/>
       <c r="AN49" s="4"/>
-      <c r="AO49" s="3"/>
+      <c r="AO49" s="19"/>
       <c r="AP49" s="4"/>
       <c r="AQ49" s="4"/>
-      <c r="AR49" s="4"/>
-      <c r="AS49" s="19"/>
-      <c r="AT49" s="19"/>
-      <c r="AU49" s="19"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="4"/>
+      <c r="AT49" s="4"/>
+      <c r="AU49" s="4"/>
       <c r="AV49" s="19"/>
-      <c r="AW49" s="25"/>
-      <c r="AX49" s="48"/>
-      <c r="AY49" s="21"/>
-      <c r="AZ49" s="4"/>
-      <c r="BA49" s="4"/>
-      <c r="BB49" s="4"/>
+      <c r="AW49" s="19"/>
+      <c r="AX49" s="19"/>
+      <c r="AY49" s="19"/>
+      <c r="AZ49" s="25"/>
+      <c r="BA49" s="48"/>
+      <c r="BB49" s="21"/>
       <c r="BC49" s="4"/>
       <c r="BD49" s="4"/>
-    </row>
-    <row r="50" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE49" s="4"/>
+      <c r="BF49" s="4"/>
+      <c r="BG49" s="4"/>
+    </row>
+    <row r="50" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G50" s="4"/>
       <c r="H50" s="15"/>
-      <c r="AJ50" s="22"/>
-      <c r="AK50" s="4"/>
-      <c r="AL50" s="19"/>
-      <c r="AM50" s="4"/>
+      <c r="AM50" s="22"/>
       <c r="AN50" s="4"/>
-      <c r="AO50" s="3"/>
+      <c r="AO50" s="19"/>
       <c r="AP50" s="4"/>
       <c r="AQ50" s="4"/>
-      <c r="AR50" s="4"/>
-      <c r="AS50" s="19"/>
-      <c r="AT50" s="19"/>
-      <c r="AU50" s="19"/>
+      <c r="AR50" s="3"/>
+      <c r="AS50" s="4"/>
+      <c r="AT50" s="4"/>
+      <c r="AU50" s="4"/>
       <c r="AV50" s="19"/>
-      <c r="AW50" s="25"/>
-      <c r="AX50" s="48"/>
-      <c r="AY50" s="21"/>
-      <c r="AZ50" s="4"/>
-      <c r="BA50" s="4"/>
-      <c r="BB50" s="4"/>
+      <c r="AW50" s="19"/>
+      <c r="AX50" s="19"/>
+      <c r="AY50" s="19"/>
+      <c r="AZ50" s="25"/>
+      <c r="BA50" s="48"/>
+      <c r="BB50" s="21"/>
       <c r="BC50" s="4"/>
       <c r="BD50" s="4"/>
-    </row>
-    <row r="51" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE50" s="4"/>
+      <c r="BF50" s="4"/>
+      <c r="BG50" s="4"/>
+    </row>
+    <row r="51" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G51" s="4"/>
       <c r="H51" s="15"/>
-      <c r="AJ51" s="22"/>
-      <c r="AK51" s="4"/>
-      <c r="AL51" s="19"/>
-      <c r="AM51" s="4"/>
+      <c r="AM51" s="22"/>
       <c r="AN51" s="4"/>
-      <c r="AO51" s="3"/>
+      <c r="AO51" s="19"/>
       <c r="AP51" s="4"/>
       <c r="AQ51" s="4"/>
-      <c r="AR51" s="4"/>
-      <c r="AS51" s="19"/>
-      <c r="AT51" s="19"/>
-      <c r="AU51" s="19"/>
+      <c r="AR51" s="3"/>
+      <c r="AS51" s="4"/>
+      <c r="AT51" s="4"/>
+      <c r="AU51" s="4"/>
       <c r="AV51" s="19"/>
-      <c r="AW51" s="25"/>
-      <c r="AX51" s="48"/>
-      <c r="AY51" s="21"/>
-      <c r="AZ51" s="4"/>
-      <c r="BA51" s="4"/>
-      <c r="BB51" s="4"/>
+      <c r="AW51" s="19"/>
+      <c r="AX51" s="19"/>
+      <c r="AY51" s="19"/>
+      <c r="AZ51" s="25"/>
+      <c r="BA51" s="48"/>
+      <c r="BB51" s="21"/>
       <c r="BC51" s="4"/>
       <c r="BD51" s="4"/>
-    </row>
-    <row r="52" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE51" s="4"/>
+      <c r="BF51" s="4"/>
+      <c r="BG51" s="4"/>
+    </row>
+    <row r="52" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G52" s="4"/>
       <c r="H52" s="15"/>
-      <c r="AJ52" s="22"/>
-      <c r="AK52" s="4"/>
-      <c r="AL52" s="19"/>
-      <c r="AM52" s="4"/>
+      <c r="AM52" s="22"/>
       <c r="AN52" s="4"/>
-      <c r="AO52" s="3"/>
+      <c r="AO52" s="19"/>
       <c r="AP52" s="4"/>
       <c r="AQ52" s="4"/>
-      <c r="AR52" s="4"/>
-      <c r="AS52" s="19"/>
-      <c r="AT52" s="19"/>
-      <c r="AU52" s="19"/>
+      <c r="AR52" s="3"/>
+      <c r="AS52" s="4"/>
+      <c r="AT52" s="4"/>
+      <c r="AU52" s="4"/>
       <c r="AV52" s="19"/>
-      <c r="AW52" s="25"/>
-      <c r="AX52" s="48"/>
-      <c r="AY52" s="21"/>
-      <c r="AZ52" s="4"/>
-      <c r="BA52" s="4"/>
-      <c r="BB52" s="4"/>
+      <c r="AW52" s="19"/>
+      <c r="AX52" s="19"/>
+      <c r="AY52" s="19"/>
+      <c r="AZ52" s="25"/>
+      <c r="BA52" s="48"/>
+      <c r="BB52" s="21"/>
       <c r="BC52" s="4"/>
       <c r="BD52" s="4"/>
-    </row>
-    <row r="53" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE52" s="4"/>
+      <c r="BF52" s="4"/>
+      <c r="BG52" s="4"/>
+    </row>
+    <row r="53" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G53" s="4"/>
       <c r="H53" s="15"/>
-      <c r="AJ53" s="22"/>
-      <c r="AK53" s="4"/>
-      <c r="AL53" s="19"/>
-      <c r="AM53" s="4"/>
+      <c r="AM53" s="22"/>
       <c r="AN53" s="4"/>
-      <c r="AO53" s="3"/>
+      <c r="AO53" s="19"/>
       <c r="AP53" s="4"/>
       <c r="AQ53" s="4"/>
-      <c r="AR53" s="4"/>
-      <c r="AS53" s="19"/>
-      <c r="AT53" s="19"/>
-      <c r="AU53" s="19"/>
+      <c r="AR53" s="3"/>
+      <c r="AS53" s="4"/>
+      <c r="AT53" s="4"/>
+      <c r="AU53" s="4"/>
       <c r="AV53" s="19"/>
-      <c r="AW53" s="25"/>
-      <c r="AX53" s="48"/>
-      <c r="AY53" s="21"/>
-      <c r="AZ53" s="4"/>
-      <c r="BA53" s="4"/>
-      <c r="BB53" s="4"/>
+      <c r="AW53" s="19"/>
+      <c r="AX53" s="19"/>
+      <c r="AY53" s="19"/>
+      <c r="AZ53" s="25"/>
+      <c r="BA53" s="48"/>
+      <c r="BB53" s="21"/>
       <c r="BC53" s="4"/>
       <c r="BD53" s="4"/>
-    </row>
-    <row r="54" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE53" s="4"/>
+      <c r="BF53" s="4"/>
+      <c r="BG53" s="4"/>
+    </row>
+    <row r="54" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G54" s="4"/>
       <c r="H54" s="15"/>
-      <c r="AJ54" s="22"/>
-      <c r="AK54" s="4"/>
-      <c r="AL54" s="19"/>
-      <c r="AM54" s="4"/>
+      <c r="AM54" s="22"/>
       <c r="AN54" s="4"/>
-      <c r="AO54" s="3"/>
+      <c r="AO54" s="19"/>
       <c r="AP54" s="4"/>
       <c r="AQ54" s="4"/>
-      <c r="AR54" s="4"/>
-      <c r="AS54" s="19"/>
-      <c r="AT54" s="19"/>
-      <c r="AU54" s="19"/>
+      <c r="AR54" s="3"/>
+      <c r="AS54" s="4"/>
+      <c r="AT54" s="4"/>
+      <c r="AU54" s="4"/>
       <c r="AV54" s="19"/>
-      <c r="AW54" s="25"/>
-      <c r="AX54" s="48"/>
-      <c r="AY54" s="21"/>
-      <c r="AZ54" s="4"/>
-      <c r="BA54" s="4"/>
-      <c r="BB54" s="4"/>
+      <c r="AW54" s="19"/>
+      <c r="AX54" s="19"/>
+      <c r="AY54" s="19"/>
+      <c r="AZ54" s="25"/>
+      <c r="BA54" s="48"/>
+      <c r="BB54" s="21"/>
       <c r="BC54" s="4"/>
       <c r="BD54" s="4"/>
-    </row>
-    <row r="55" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE54" s="4"/>
+      <c r="BF54" s="4"/>
+      <c r="BG54" s="4"/>
+    </row>
+    <row r="55" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G55" s="4"/>
       <c r="H55" s="15"/>
-      <c r="AJ55" s="22"/>
-      <c r="AK55" s="4"/>
-      <c r="AL55" s="19"/>
-      <c r="AM55" s="4"/>
+      <c r="AM55" s="22"/>
       <c r="AN55" s="4"/>
-      <c r="AO55" s="3"/>
+      <c r="AO55" s="19"/>
       <c r="AP55" s="4"/>
       <c r="AQ55" s="4"/>
-      <c r="AR55" s="4"/>
-      <c r="AS55" s="19"/>
-      <c r="AT55" s="19"/>
-      <c r="AU55" s="19"/>
+      <c r="AR55" s="3"/>
+      <c r="AS55" s="4"/>
+      <c r="AT55" s="4"/>
+      <c r="AU55" s="4"/>
       <c r="AV55" s="19"/>
-      <c r="AW55" s="25"/>
-      <c r="AX55" s="48"/>
-      <c r="AY55" s="21"/>
-      <c r="AZ55" s="4"/>
-      <c r="BA55" s="4"/>
-      <c r="BB55" s="4"/>
+      <c r="AW55" s="19"/>
+      <c r="AX55" s="19"/>
+      <c r="AY55" s="19"/>
+      <c r="AZ55" s="25"/>
+      <c r="BA55" s="48"/>
+      <c r="BB55" s="21"/>
       <c r="BC55" s="4"/>
       <c r="BD55" s="4"/>
-    </row>
-    <row r="56" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE55" s="4"/>
+      <c r="BF55" s="4"/>
+      <c r="BG55" s="4"/>
+    </row>
+    <row r="56" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G56" s="4"/>
       <c r="H56" s="15"/>
-      <c r="AJ56" s="22"/>
-      <c r="AK56" s="4"/>
-      <c r="AL56" s="19"/>
-      <c r="AM56" s="4"/>
+      <c r="AM56" s="22"/>
       <c r="AN56" s="4"/>
-      <c r="AO56" s="3"/>
+      <c r="AO56" s="19"/>
       <c r="AP56" s="4"/>
       <c r="AQ56" s="4"/>
-      <c r="AR56" s="4"/>
-      <c r="AS56" s="19"/>
-      <c r="AT56" s="19"/>
-      <c r="AU56" s="19"/>
+      <c r="AR56" s="3"/>
+      <c r="AS56" s="4"/>
+      <c r="AT56" s="4"/>
+      <c r="AU56" s="4"/>
       <c r="AV56" s="19"/>
-      <c r="AW56" s="25"/>
-      <c r="AX56" s="48"/>
-      <c r="AY56" s="21"/>
-      <c r="AZ56" s="4"/>
-      <c r="BA56" s="4"/>
-      <c r="BB56" s="4"/>
+      <c r="AW56" s="19"/>
+      <c r="AX56" s="19"/>
+      <c r="AY56" s="19"/>
+      <c r="AZ56" s="25"/>
+      <c r="BA56" s="48"/>
+      <c r="BB56" s="21"/>
       <c r="BC56" s="4"/>
       <c r="BD56" s="4"/>
-    </row>
-    <row r="57" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE56" s="4"/>
+      <c r="BF56" s="4"/>
+      <c r="BG56" s="4"/>
+    </row>
+    <row r="57" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G57" s="4"/>
       <c r="H57" s="15"/>
-      <c r="AJ57" s="22"/>
-      <c r="AK57" s="4"/>
-      <c r="AL57" s="19"/>
-      <c r="AM57" s="4"/>
+      <c r="AM57" s="22"/>
       <c r="AN57" s="4"/>
-      <c r="AO57" s="3"/>
+      <c r="AO57" s="19"/>
       <c r="AP57" s="4"/>
       <c r="AQ57" s="4"/>
-      <c r="AR57" s="4"/>
-      <c r="AS57" s="19"/>
-      <c r="AT57" s="19"/>
-      <c r="AU57" s="19"/>
+      <c r="AR57" s="3"/>
+      <c r="AS57" s="4"/>
+      <c r="AT57" s="4"/>
+      <c r="AU57" s="4"/>
       <c r="AV57" s="19"/>
-      <c r="AW57" s="25"/>
-      <c r="AX57" s="48"/>
-      <c r="AY57" s="21"/>
-      <c r="AZ57" s="4"/>
-      <c r="BA57" s="4"/>
-      <c r="BB57" s="4"/>
+      <c r="AW57" s="19"/>
+      <c r="AX57" s="19"/>
+      <c r="AY57" s="19"/>
+      <c r="AZ57" s="25"/>
+      <c r="BA57" s="48"/>
+      <c r="BB57" s="21"/>
       <c r="BC57" s="4"/>
       <c r="BD57" s="4"/>
-    </row>
-    <row r="58" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE57" s="4"/>
+      <c r="BF57" s="4"/>
+      <c r="BG57" s="4"/>
+    </row>
+    <row r="58" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G58" s="4"/>
       <c r="H58" s="15"/>
-      <c r="AJ58" s="22"/>
-      <c r="AK58" s="4"/>
-      <c r="AL58" s="19"/>
-      <c r="AM58" s="4"/>
+      <c r="AM58" s="22"/>
       <c r="AN58" s="4"/>
-      <c r="AO58" s="3"/>
+      <c r="AO58" s="19"/>
       <c r="AP58" s="4"/>
       <c r="AQ58" s="4"/>
-      <c r="AR58" s="4"/>
-      <c r="AS58" s="19"/>
-      <c r="AT58" s="19"/>
-      <c r="AU58" s="19"/>
+      <c r="AR58" s="3"/>
+      <c r="AS58" s="4"/>
+      <c r="AT58" s="4"/>
+      <c r="AU58" s="4"/>
       <c r="AV58" s="19"/>
-      <c r="AW58" s="25"/>
-      <c r="AX58" s="48"/>
-      <c r="AY58" s="21"/>
-      <c r="AZ58" s="4"/>
-      <c r="BA58" s="4"/>
-      <c r="BB58" s="4"/>
+      <c r="AW58" s="19"/>
+      <c r="AX58" s="19"/>
+      <c r="AY58" s="19"/>
+      <c r="AZ58" s="25"/>
+      <c r="BA58" s="48"/>
+      <c r="BB58" s="21"/>
       <c r="BC58" s="4"/>
       <c r="BD58" s="4"/>
-    </row>
-    <row r="59" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE58" s="4"/>
+      <c r="BF58" s="4"/>
+      <c r="BG58" s="4"/>
+    </row>
+    <row r="59" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G59" s="4"/>
       <c r="H59" s="15"/>
-      <c r="AJ59" s="22"/>
-      <c r="AK59" s="4"/>
-      <c r="AL59" s="19"/>
-      <c r="AM59" s="4"/>
+      <c r="AM59" s="22"/>
       <c r="AN59" s="4"/>
-      <c r="AO59" s="3"/>
+      <c r="AO59" s="19"/>
       <c r="AP59" s="4"/>
       <c r="AQ59" s="4"/>
-      <c r="AR59" s="4"/>
-      <c r="AS59" s="19"/>
-      <c r="AT59" s="19"/>
-      <c r="AU59" s="19"/>
+      <c r="AR59" s="3"/>
+      <c r="AS59" s="4"/>
+      <c r="AT59" s="4"/>
+      <c r="AU59" s="4"/>
       <c r="AV59" s="19"/>
-      <c r="AW59" s="25"/>
-      <c r="AX59" s="48"/>
-      <c r="AY59" s="21"/>
-      <c r="AZ59" s="4"/>
-      <c r="BA59" s="4"/>
-      <c r="BB59" s="4"/>
+      <c r="AW59" s="19"/>
+      <c r="AX59" s="19"/>
+      <c r="AY59" s="19"/>
+      <c r="AZ59" s="25"/>
+      <c r="BA59" s="48"/>
+      <c r="BB59" s="21"/>
       <c r="BC59" s="4"/>
       <c r="BD59" s="4"/>
-    </row>
-    <row r="60" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE59" s="4"/>
+      <c r="BF59" s="4"/>
+      <c r="BG59" s="4"/>
+    </row>
+    <row r="60" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G60" s="4"/>
       <c r="H60" s="15"/>
-      <c r="AJ60" s="22"/>
-      <c r="AK60" s="4"/>
-      <c r="AL60" s="19"/>
-      <c r="AM60" s="4"/>
+      <c r="AM60" s="22"/>
       <c r="AN60" s="4"/>
-      <c r="AO60" s="3"/>
+      <c r="AO60" s="19"/>
       <c r="AP60" s="4"/>
       <c r="AQ60" s="4"/>
-      <c r="AR60" s="4"/>
-      <c r="AS60" s="19"/>
-      <c r="AT60" s="19"/>
-      <c r="AU60" s="19"/>
+      <c r="AR60" s="3"/>
+      <c r="AS60" s="4"/>
+      <c r="AT60" s="4"/>
+      <c r="AU60" s="4"/>
       <c r="AV60" s="19"/>
-      <c r="AW60" s="25"/>
-      <c r="AX60" s="48"/>
-      <c r="AY60" s="21"/>
-      <c r="AZ60" s="4"/>
-      <c r="BA60" s="4"/>
-      <c r="BB60" s="4"/>
+      <c r="AW60" s="19"/>
+      <c r="AX60" s="19"/>
+      <c r="AY60" s="19"/>
+      <c r="AZ60" s="25"/>
+      <c r="BA60" s="48"/>
+      <c r="BB60" s="21"/>
       <c r="BC60" s="4"/>
       <c r="BD60" s="4"/>
-    </row>
-    <row r="61" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE60" s="4"/>
+      <c r="BF60" s="4"/>
+      <c r="BG60" s="4"/>
+    </row>
+    <row r="61" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G61" s="4"/>
       <c r="H61" s="15"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="4"/>
-      <c r="AL61" s="19"/>
-      <c r="AM61" s="4"/>
+      <c r="AM61" s="22"/>
       <c r="AN61" s="4"/>
-      <c r="AO61" s="3"/>
+      <c r="AO61" s="19"/>
       <c r="AP61" s="4"/>
       <c r="AQ61" s="4"/>
-      <c r="AR61" s="4"/>
-      <c r="AS61" s="19"/>
-      <c r="AT61" s="19"/>
-      <c r="AU61" s="19"/>
+      <c r="AR61" s="3"/>
+      <c r="AS61" s="4"/>
+      <c r="AT61" s="4"/>
+      <c r="AU61" s="4"/>
       <c r="AV61" s="19"/>
-      <c r="AW61" s="25"/>
-      <c r="AX61" s="48"/>
-      <c r="AY61" s="21"/>
-      <c r="AZ61" s="4"/>
-      <c r="BA61" s="4"/>
-      <c r="BB61" s="4"/>
+      <c r="AW61" s="19"/>
+      <c r="AX61" s="19"/>
+      <c r="AY61" s="19"/>
+      <c r="AZ61" s="25"/>
+      <c r="BA61" s="48"/>
+      <c r="BB61" s="21"/>
       <c r="BC61" s="4"/>
       <c r="BD61" s="4"/>
-    </row>
-    <row r="62" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE61" s="4"/>
+      <c r="BF61" s="4"/>
+      <c r="BG61" s="4"/>
+    </row>
+    <row r="62" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G62" s="4"/>
       <c r="H62" s="15"/>
-      <c r="AJ62" s="22"/>
-      <c r="AK62" s="4"/>
-      <c r="AL62" s="19"/>
-      <c r="AM62" s="4"/>
+      <c r="AM62" s="22"/>
       <c r="AN62" s="4"/>
-      <c r="AO62" s="3"/>
+      <c r="AO62" s="19"/>
       <c r="AP62" s="4"/>
       <c r="AQ62" s="4"/>
-      <c r="AR62" s="4"/>
-      <c r="AS62" s="19"/>
-      <c r="AT62" s="19"/>
-      <c r="AU62" s="19"/>
+      <c r="AR62" s="3"/>
+      <c r="AS62" s="4"/>
+      <c r="AT62" s="4"/>
+      <c r="AU62" s="4"/>
       <c r="AV62" s="19"/>
-      <c r="AW62" s="25"/>
-      <c r="AX62" s="48"/>
-      <c r="AY62" s="21"/>
-      <c r="AZ62" s="4"/>
-      <c r="BA62" s="4"/>
-      <c r="BB62" s="4"/>
+      <c r="AW62" s="19"/>
+      <c r="AX62" s="19"/>
+      <c r="AY62" s="19"/>
+      <c r="AZ62" s="25"/>
+      <c r="BA62" s="48"/>
+      <c r="BB62" s="21"/>
       <c r="BC62" s="4"/>
       <c r="BD62" s="4"/>
-    </row>
-    <row r="63" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE62" s="4"/>
+      <c r="BF62" s="4"/>
+      <c r="BG62" s="4"/>
+    </row>
+    <row r="63" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G63" s="4"/>
       <c r="H63" s="15"/>
-      <c r="AJ63" s="22"/>
-      <c r="AK63" s="4"/>
-      <c r="AL63" s="19"/>
-      <c r="AM63" s="4"/>
+      <c r="AM63" s="22"/>
       <c r="AN63" s="4"/>
-      <c r="AO63" s="3"/>
+      <c r="AO63" s="19"/>
       <c r="AP63" s="4"/>
       <c r="AQ63" s="4"/>
-      <c r="AR63" s="4"/>
-      <c r="AS63" s="19"/>
-      <c r="AT63" s="19"/>
-      <c r="AU63" s="19"/>
+      <c r="AR63" s="3"/>
+      <c r="AS63" s="4"/>
+      <c r="AT63" s="4"/>
+      <c r="AU63" s="4"/>
       <c r="AV63" s="19"/>
-      <c r="AW63" s="25"/>
-      <c r="AX63" s="48"/>
-      <c r="AY63" s="21"/>
-      <c r="AZ63" s="4"/>
-      <c r="BA63" s="4"/>
-      <c r="BB63" s="4"/>
+      <c r="AW63" s="19"/>
+      <c r="AX63" s="19"/>
+      <c r="AY63" s="19"/>
+      <c r="AZ63" s="25"/>
+      <c r="BA63" s="48"/>
+      <c r="BB63" s="21"/>
       <c r="BC63" s="4"/>
       <c r="BD63" s="4"/>
-    </row>
-    <row r="64" spans="7:56" x14ac:dyDescent="0.25">
+      <c r="BE63" s="4"/>
+      <c r="BF63" s="4"/>
+      <c r="BG63" s="4"/>
+    </row>
+    <row r="64" spans="7:59" x14ac:dyDescent="0.45">
       <c r="G64" s="4"/>
       <c r="H64" s="15"/>
-      <c r="AJ64" s="22"/>
-      <c r="AK64" s="4"/>
-      <c r="AL64" s="19"/>
-      <c r="AM64" s="4"/>
+      <c r="AM64" s="22"/>
       <c r="AN64" s="4"/>
-      <c r="AO64" s="3"/>
+      <c r="AO64" s="19"/>
       <c r="AP64" s="4"/>
       <c r="AQ64" s="4"/>
-      <c r="AR64" s="4"/>
-      <c r="AS64" s="19"/>
-      <c r="AT64" s="19"/>
-      <c r="AU64" s="19"/>
+      <c r="AR64" s="3"/>
+      <c r="AS64" s="4"/>
+      <c r="AT64" s="4"/>
+      <c r="AU64" s="4"/>
       <c r="AV64" s="19"/>
-      <c r="AW64" s="25"/>
-      <c r="AX64" s="48"/>
-      <c r="AY64" s="21"/>
-      <c r="AZ64" s="4"/>
-      <c r="BA64" s="4"/>
-      <c r="BB64" s="4"/>
+      <c r="AW64" s="19"/>
+      <c r="AX64" s="19"/>
+      <c r="AY64" s="19"/>
+      <c r="AZ64" s="25"/>
+      <c r="BA64" s="48"/>
+      <c r="BB64" s="21"/>
       <c r="BC64" s="4"/>
       <c r="BD64" s="4"/>
-    </row>
-    <row r="65" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE64" s="4"/>
+      <c r="BF64" s="4"/>
+      <c r="BG64" s="4"/>
+    </row>
+    <row r="65" spans="3:59" x14ac:dyDescent="0.45">
       <c r="G65" s="4"/>
       <c r="H65" s="15"/>
-      <c r="AJ65" s="22"/>
-      <c r="AK65" s="4"/>
-      <c r="AL65" s="19"/>
-      <c r="AM65" s="4"/>
+      <c r="AM65" s="22"/>
       <c r="AN65" s="4"/>
-      <c r="AO65" s="3"/>
+      <c r="AO65" s="19"/>
       <c r="AP65" s="4"/>
       <c r="AQ65" s="4"/>
-      <c r="AR65" s="4"/>
-      <c r="AS65" s="19"/>
-      <c r="AT65" s="19"/>
-      <c r="AU65" s="19"/>
+      <c r="AR65" s="3"/>
+      <c r="AS65" s="4"/>
+      <c r="AT65" s="4"/>
+      <c r="AU65" s="4"/>
       <c r="AV65" s="19"/>
-      <c r="AW65" s="25"/>
-      <c r="AX65" s="48"/>
-      <c r="AY65" s="21"/>
-      <c r="AZ65" s="4"/>
-      <c r="BA65" s="4"/>
-      <c r="BB65" s="4"/>
+      <c r="AW65" s="19"/>
+      <c r="AX65" s="19"/>
+      <c r="AY65" s="19"/>
+      <c r="AZ65" s="25"/>
+      <c r="BA65" s="48"/>
+      <c r="BB65" s="21"/>
       <c r="BC65" s="4"/>
       <c r="BD65" s="4"/>
-    </row>
-    <row r="66" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="BE65" s="4"/>
+      <c r="BF65" s="4"/>
+      <c r="BG65" s="4"/>
+    </row>
+    <row r="66" spans="3:59" x14ac:dyDescent="0.45">
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66"/>
-      <c r="AK66"/>
-      <c r="AL66"/>
-      <c r="AQ66"/>
-      <c r="AR66"/>
-    </row>
-    <row r="67" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="AN66"/>
+      <c r="AO66"/>
+      <c r="AT66"/>
+      <c r="AU66"/>
+    </row>
+    <row r="67" spans="3:59" x14ac:dyDescent="0.45">
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
-      <c r="AK67"/>
-      <c r="AL67"/>
-      <c r="AQ67"/>
-      <c r="AR67"/>
-    </row>
-    <row r="68" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="AN67"/>
+      <c r="AO67"/>
+      <c r="AT67"/>
+      <c r="AU67"/>
+    </row>
+    <row r="68" spans="3:59" x14ac:dyDescent="0.45">
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
-      <c r="AK68"/>
-      <c r="AL68"/>
-      <c r="AQ68"/>
-      <c r="AR68"/>
-    </row>
-    <row r="69" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="AN68"/>
+      <c r="AO68"/>
+      <c r="AT68"/>
+      <c r="AU68"/>
+    </row>
+    <row r="69" spans="3:59" x14ac:dyDescent="0.45">
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
-      <c r="AK69"/>
-      <c r="AL69"/>
-      <c r="AQ69"/>
-      <c r="AR69"/>
-    </row>
-    <row r="70" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="AN69"/>
+      <c r="AO69"/>
+      <c r="AT69"/>
+      <c r="AU69"/>
+    </row>
+    <row r="70" spans="3:59" x14ac:dyDescent="0.45">
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
-      <c r="AK70"/>
-      <c r="AL70"/>
-      <c r="AQ70"/>
-      <c r="AR70"/>
-    </row>
-    <row r="71" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="AN70"/>
+      <c r="AO70"/>
+      <c r="AT70"/>
+      <c r="AU70"/>
+    </row>
+    <row r="71" spans="3:59" x14ac:dyDescent="0.45">
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="AK71"/>
-      <c r="AL71"/>
-      <c r="AQ71"/>
-      <c r="AR71"/>
-    </row>
-    <row r="72" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="AN71"/>
+      <c r="AO71"/>
+      <c r="AT71"/>
+      <c r="AU71"/>
+    </row>
+    <row r="72" spans="3:59" x14ac:dyDescent="0.45">
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="AK72"/>
-      <c r="AL72"/>
-      <c r="AQ72"/>
-      <c r="AR72"/>
-    </row>
-    <row r="73" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="AN72"/>
+      <c r="AO72"/>
+      <c r="AT72"/>
+      <c r="AU72"/>
+    </row>
+    <row r="73" spans="3:59" x14ac:dyDescent="0.45">
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
-      <c r="AK73"/>
-      <c r="AL73"/>
-      <c r="AQ73"/>
-      <c r="AR73"/>
-    </row>
-    <row r="74" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="AN73"/>
+      <c r="AO73"/>
+      <c r="AT73"/>
+      <c r="AU73"/>
+    </row>
+    <row r="74" spans="3:59" x14ac:dyDescent="0.45">
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
-      <c r="AK74"/>
-      <c r="AL74"/>
-      <c r="AQ74"/>
-      <c r="AR74"/>
-    </row>
-    <row r="75" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="AN74"/>
+      <c r="AO74"/>
+      <c r="AT74"/>
+      <c r="AU74"/>
+    </row>
+    <row r="75" spans="3:59" x14ac:dyDescent="0.45">
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
-      <c r="AK75"/>
-      <c r="AL75"/>
-      <c r="AQ75"/>
-      <c r="AR75"/>
-    </row>
-    <row r="76" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="AN75"/>
+      <c r="AO75"/>
+      <c r="AT75"/>
+      <c r="AU75"/>
+    </row>
+    <row r="76" spans="3:59" x14ac:dyDescent="0.45">
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="AK76"/>
-      <c r="AL76"/>
-      <c r="AQ76"/>
-      <c r="AR76"/>
-    </row>
-    <row r="77" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="AN76"/>
+      <c r="AO76"/>
+      <c r="AT76"/>
+      <c r="AU76"/>
+    </row>
+    <row r="77" spans="3:59" x14ac:dyDescent="0.45">
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="AK77"/>
-      <c r="AL77"/>
-      <c r="AQ77"/>
-      <c r="AR77"/>
-    </row>
-    <row r="78" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="AN77"/>
+      <c r="AO77"/>
+      <c r="AT77"/>
+      <c r="AU77"/>
+    </row>
+    <row r="78" spans="3:59" x14ac:dyDescent="0.45">
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="AK78"/>
-      <c r="AL78"/>
-      <c r="AQ78"/>
-      <c r="AR78"/>
-    </row>
-    <row r="79" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="AN78"/>
+      <c r="AO78"/>
+      <c r="AT78"/>
+      <c r="AU78"/>
+    </row>
+    <row r="79" spans="3:59" x14ac:dyDescent="0.45">
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
-      <c r="AK79"/>
-      <c r="AL79"/>
-      <c r="AQ79"/>
-      <c r="AR79"/>
-    </row>
-    <row r="80" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="AN79"/>
+      <c r="AO79"/>
+      <c r="AT79"/>
+      <c r="AU79"/>
+    </row>
+    <row r="80" spans="3:59" x14ac:dyDescent="0.45">
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80"/>
-      <c r="AK80"/>
-      <c r="AL80"/>
-      <c r="AQ80"/>
-      <c r="AR80"/>
-    </row>
-    <row r="81" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN80"/>
+      <c r="AO80"/>
+      <c r="AT80"/>
+      <c r="AU80"/>
+    </row>
+    <row r="81" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
-      <c r="AK81"/>
-      <c r="AL81"/>
-      <c r="AQ81"/>
-      <c r="AR81"/>
-    </row>
-    <row r="82" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN81"/>
+      <c r="AO81"/>
+      <c r="AT81"/>
+      <c r="AU81"/>
+    </row>
+    <row r="82" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82"/>
-      <c r="AK82"/>
-      <c r="AL82"/>
-      <c r="AQ82"/>
-      <c r="AR82"/>
-    </row>
-    <row r="83" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN82"/>
+      <c r="AO82"/>
+      <c r="AT82"/>
+      <c r="AU82"/>
+    </row>
+    <row r="83" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83"/>
-      <c r="AK83"/>
-      <c r="AL83"/>
-      <c r="AQ83"/>
-      <c r="AR83"/>
-    </row>
-    <row r="84" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN83"/>
+      <c r="AO83"/>
+      <c r="AT83"/>
+      <c r="AU83"/>
+    </row>
+    <row r="84" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84"/>
-      <c r="AK84"/>
-      <c r="AL84"/>
-      <c r="AQ84"/>
-      <c r="AR84"/>
-    </row>
-    <row r="85" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN84"/>
+      <c r="AO84"/>
+      <c r="AT84"/>
+      <c r="AU84"/>
+    </row>
+    <row r="85" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
-      <c r="AK85"/>
-      <c r="AL85"/>
-      <c r="AQ85"/>
-      <c r="AR85"/>
-    </row>
-    <row r="86" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN85"/>
+      <c r="AO85"/>
+      <c r="AT85"/>
+      <c r="AU85"/>
+    </row>
+    <row r="86" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86"/>
-      <c r="AK86"/>
-      <c r="AL86"/>
-      <c r="AQ86"/>
-      <c r="AR86"/>
-    </row>
-    <row r="87" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN86"/>
+      <c r="AO86"/>
+      <c r="AT86"/>
+      <c r="AU86"/>
+    </row>
+    <row r="87" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
-      <c r="AK87"/>
-      <c r="AL87"/>
-      <c r="AQ87"/>
-      <c r="AR87"/>
-    </row>
-    <row r="88" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN87"/>
+      <c r="AO87"/>
+      <c r="AT87"/>
+      <c r="AU87"/>
+    </row>
+    <row r="88" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88"/>
-      <c r="AK88"/>
-      <c r="AL88"/>
-      <c r="AQ88"/>
-      <c r="AR88"/>
-    </row>
-    <row r="89" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN88"/>
+      <c r="AO88"/>
+      <c r="AT88"/>
+      <c r="AU88"/>
+    </row>
+    <row r="89" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89"/>
-      <c r="AK89"/>
-      <c r="AL89"/>
-      <c r="AQ89"/>
-      <c r="AR89"/>
-    </row>
-    <row r="90" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN89"/>
+      <c r="AO89"/>
+      <c r="AT89"/>
+      <c r="AU89"/>
+    </row>
+    <row r="90" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90"/>
-      <c r="AK90"/>
-      <c r="AL90"/>
-      <c r="AQ90"/>
-      <c r="AR90"/>
-    </row>
-    <row r="91" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN90"/>
+      <c r="AO90"/>
+      <c r="AT90"/>
+      <c r="AU90"/>
+    </row>
+    <row r="91" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91"/>
-      <c r="AK91"/>
-      <c r="AL91"/>
-      <c r="AQ91"/>
-      <c r="AR91"/>
-    </row>
-    <row r="92" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN91"/>
+      <c r="AO91"/>
+      <c r="AT91"/>
+      <c r="AU91"/>
+    </row>
+    <row r="92" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92"/>
-      <c r="AK92"/>
-      <c r="AL92"/>
-      <c r="AQ92"/>
-      <c r="AR92"/>
-    </row>
-    <row r="93" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN92"/>
+      <c r="AO92"/>
+      <c r="AT92"/>
+      <c r="AU92"/>
+    </row>
+    <row r="93" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93"/>
-      <c r="AK93"/>
-      <c r="AL93"/>
-      <c r="AQ93"/>
-      <c r="AR93"/>
-    </row>
-    <row r="94" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN93"/>
+      <c r="AO93"/>
+      <c r="AT93"/>
+      <c r="AU93"/>
+    </row>
+    <row r="94" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94"/>
-      <c r="AK94"/>
-      <c r="AL94"/>
-      <c r="AQ94"/>
-      <c r="AR94"/>
-    </row>
-    <row r="95" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN94"/>
+      <c r="AO94"/>
+      <c r="AT94"/>
+      <c r="AU94"/>
+    </row>
+    <row r="95" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95"/>
-      <c r="AK95"/>
-      <c r="AL95"/>
-      <c r="AQ95"/>
-      <c r="AR95"/>
-    </row>
-    <row r="96" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN95"/>
+      <c r="AO95"/>
+      <c r="AT95"/>
+      <c r="AU95"/>
+    </row>
+    <row r="96" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96"/>
-      <c r="AK96"/>
-      <c r="AL96"/>
-      <c r="AQ96"/>
-      <c r="AR96"/>
-    </row>
-    <row r="97" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN96"/>
+      <c r="AO96"/>
+      <c r="AT96"/>
+      <c r="AU96"/>
+    </row>
+    <row r="97" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97"/>
-      <c r="AK97"/>
-      <c r="AL97"/>
-      <c r="AQ97"/>
-      <c r="AR97"/>
-    </row>
-    <row r="98" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN97"/>
+      <c r="AO97"/>
+      <c r="AT97"/>
+      <c r="AU97"/>
+    </row>
+    <row r="98" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98"/>
-      <c r="AK98"/>
-      <c r="AL98"/>
-      <c r="AQ98"/>
-      <c r="AR98"/>
-    </row>
-    <row r="99" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN98"/>
+      <c r="AO98"/>
+      <c r="AT98"/>
+      <c r="AU98"/>
+    </row>
+    <row r="99" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99"/>
-      <c r="AK99"/>
-      <c r="AL99"/>
-      <c r="AQ99"/>
-      <c r="AR99"/>
-    </row>
-    <row r="100" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN99"/>
+      <c r="AO99"/>
+      <c r="AT99"/>
+      <c r="AU99"/>
+    </row>
+    <row r="100" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100"/>
-      <c r="AK100"/>
-      <c r="AL100"/>
-      <c r="AQ100"/>
-      <c r="AR100"/>
-    </row>
-    <row r="101" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN100"/>
+      <c r="AO100"/>
+      <c r="AT100"/>
+      <c r="AU100"/>
+    </row>
+    <row r="101" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101"/>
-      <c r="AK101"/>
-      <c r="AL101"/>
-      <c r="AQ101"/>
-      <c r="AR101"/>
-    </row>
-    <row r="102" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN101"/>
+      <c r="AO101"/>
+      <c r="AT101"/>
+      <c r="AU101"/>
+    </row>
+    <row r="102" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102"/>
-      <c r="AK102"/>
-      <c r="AL102"/>
-      <c r="AQ102"/>
-      <c r="AR102"/>
-    </row>
-    <row r="103" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN102"/>
+      <c r="AO102"/>
+      <c r="AT102"/>
+      <c r="AU102"/>
+    </row>
+    <row r="103" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
-      <c r="AK103"/>
-      <c r="AL103"/>
-      <c r="AQ103"/>
-      <c r="AR103"/>
-    </row>
-    <row r="104" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN103"/>
+      <c r="AO103"/>
+      <c r="AT103"/>
+      <c r="AU103"/>
+    </row>
+    <row r="104" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
-      <c r="AK104"/>
-      <c r="AL104"/>
-      <c r="AQ104"/>
-      <c r="AR104"/>
-    </row>
-    <row r="105" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN104"/>
+      <c r="AO104"/>
+      <c r="AT104"/>
+      <c r="AU104"/>
+    </row>
+    <row r="105" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
-      <c r="AK105"/>
-      <c r="AL105"/>
-      <c r="AQ105"/>
-      <c r="AR105"/>
-    </row>
-    <row r="106" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AN105"/>
+      <c r="AO105"/>
+      <c r="AT105"/>
+      <c r="AU105"/>
+    </row>
+    <row r="106" spans="3:47" x14ac:dyDescent="0.45">
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106"/>
-      <c r="AK106"/>
-      <c r="AL106"/>
-      <c r="AQ106"/>
-      <c r="AR106"/>
+      <c r="AN106"/>
+      <c r="AO106"/>
+      <c r="AT106"/>
+      <c r="AU106"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -15330,11 +15398,11 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AJ2" r:id="rId1" xr:uid="{E4CCCB3E-001A-467E-9931-1FD554158C91}"/>
-    <hyperlink ref="AJ3" r:id="rId2" xr:uid="{32EE1602-2D78-4695-9400-2662976E84AC}"/>
-    <hyperlink ref="AJ4" r:id="rId3" xr:uid="{62878BF4-D58B-4C1B-86EE-A5932DFD6628}"/>
-    <hyperlink ref="AJ5" r:id="rId4" xr:uid="{16097A3D-E8E6-4C47-B516-EC4B9EB778AD}"/>
-    <hyperlink ref="AJ6" r:id="rId5" xr:uid="{EC7FE6F1-71D0-4E92-9FD9-2A9A402AB5F5}"/>
+    <hyperlink ref="AM2" r:id="rId1" xr:uid="{E4CCCB3E-001A-467E-9931-1FD554158C91}"/>
+    <hyperlink ref="AM3" r:id="rId2" xr:uid="{32EE1602-2D78-4695-9400-2662976E84AC}"/>
+    <hyperlink ref="AM4" r:id="rId3" xr:uid="{62878BF4-D58B-4C1B-86EE-A5932DFD6628}"/>
+    <hyperlink ref="AM5" r:id="rId4" xr:uid="{16097A3D-E8E6-4C47-B516-EC4B9EB778AD}"/>
+    <hyperlink ref="AM6" r:id="rId5" xr:uid="{EC7FE6F1-71D0-4E92-9FD9-2A9A402AB5F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -15369,13 +15437,13 @@
           <x14:formula1>
             <xm:f>Notes!$I$3:$I$18</xm:f>
           </x14:formula1>
-          <xm:sqref>AJ52:AJ1048576</xm:sqref>
+          <xm:sqref>AM52:AM1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{24B9D03D-B383-420E-9EDE-3DDB29D5D92F}">
           <x14:formula1>
             <xm:f>Notes!$K$2:$K$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AK33:AL1048576</xm:sqref>
+          <xm:sqref>AN33:AO1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15391,76 +15459,76 @@
       <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" customWidth="1"/>
+    <col min="8" max="8" width="16.265625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" customWidth="1"/>
+    <col min="11" max="11" width="13.73046875" customWidth="1"/>
+    <col min="12" max="12" width="14.73046875" customWidth="1"/>
+    <col min="13" max="13" width="15.59765625" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" customWidth="1"/>
+    <col min="15" max="15" width="16.1328125" customWidth="1"/>
+    <col min="16" max="16" width="12.73046875" customWidth="1"/>
+    <col min="17" max="17" width="13.73046875" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" customWidth="1"/>
+    <col min="20" max="20" width="13.86328125" customWidth="1"/>
+    <col min="21" max="21" width="23.3984375" customWidth="1"/>
+    <col min="22" max="22" width="16.3984375" customWidth="1"/>
     <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="24" max="24" width="11.265625" customWidth="1"/>
     <col min="25" max="25" width="17" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" customWidth="1"/>
-    <col min="27" max="27" width="22.5703125" customWidth="1"/>
-    <col min="28" max="28" width="17.85546875" customWidth="1"/>
-    <col min="29" max="29" width="20.5703125" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" customWidth="1"/>
-    <col min="31" max="31" width="21.28515625" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="34" max="34" width="9.42578125" customWidth="1"/>
-    <col min="35" max="35" width="14.7109375" customWidth="1"/>
-    <col min="36" max="36" width="22.5703125" customWidth="1"/>
-    <col min="37" max="37" width="11.28515625" customWidth="1"/>
-    <col min="38" max="38" width="18.7109375" customWidth="1"/>
-    <col min="39" max="39" width="18.28515625" customWidth="1"/>
-    <col min="40" max="40" width="14.28515625" customWidth="1"/>
-    <col min="41" max="41" width="20.140625" customWidth="1"/>
-    <col min="42" max="42" width="21.140625" customWidth="1"/>
-    <col min="43" max="43" width="17.5703125" customWidth="1"/>
-    <col min="44" max="44" width="19.140625" customWidth="1"/>
-    <col min="45" max="45" width="19.7109375" customWidth="1"/>
+    <col min="26" max="26" width="9.59765625" customWidth="1"/>
+    <col min="27" max="27" width="22.59765625" customWidth="1"/>
+    <col min="28" max="28" width="17.86328125" customWidth="1"/>
+    <col min="29" max="29" width="20.59765625" customWidth="1"/>
+    <col min="30" max="30" width="13.265625" customWidth="1"/>
+    <col min="31" max="31" width="21.265625" customWidth="1"/>
+    <col min="32" max="32" width="10.73046875" customWidth="1"/>
+    <col min="33" max="33" width="14.59765625" customWidth="1"/>
+    <col min="34" max="34" width="9.3984375" customWidth="1"/>
+    <col min="35" max="35" width="14.73046875" customWidth="1"/>
+    <col min="36" max="36" width="22.59765625" customWidth="1"/>
+    <col min="37" max="37" width="11.265625" customWidth="1"/>
+    <col min="38" max="38" width="18.73046875" customWidth="1"/>
+    <col min="39" max="39" width="18.265625" customWidth="1"/>
+    <col min="40" max="40" width="14.265625" customWidth="1"/>
+    <col min="41" max="41" width="20.1328125" customWidth="1"/>
+    <col min="42" max="42" width="21.1328125" customWidth="1"/>
+    <col min="43" max="43" width="17.59765625" customWidth="1"/>
+    <col min="44" max="44" width="19.1328125" customWidth="1"/>
+    <col min="45" max="45" width="19.73046875" customWidth="1"/>
     <col min="46" max="46" width="19" customWidth="1"/>
-    <col min="47" max="47" width="20.5703125" customWidth="1"/>
+    <col min="47" max="47" width="20.59765625" customWidth="1"/>
     <col min="48" max="48" width="19" customWidth="1"/>
-    <col min="49" max="49" width="18.7109375" customWidth="1"/>
-    <col min="50" max="50" width="20.28515625" customWidth="1"/>
-    <col min="51" max="51" width="20.5703125" customWidth="1"/>
+    <col min="49" max="49" width="18.73046875" customWidth="1"/>
+    <col min="50" max="50" width="20.265625" customWidth="1"/>
+    <col min="51" max="51" width="20.59765625" customWidth="1"/>
     <col min="52" max="53" width="25" customWidth="1"/>
-    <col min="54" max="54" width="26.5703125" customWidth="1"/>
+    <col min="54" max="54" width="26.59765625" customWidth="1"/>
     <col min="55" max="55" width="25" customWidth="1"/>
-    <col min="56" max="57" width="26.5703125" customWidth="1"/>
-    <col min="58" max="58" width="28.140625" customWidth="1"/>
-    <col min="59" max="59" width="26.5703125" customWidth="1"/>
-    <col min="60" max="60" width="30.7109375" customWidth="1"/>
-    <col min="61" max="61" width="32.28515625" customWidth="1"/>
+    <col min="56" max="57" width="26.59765625" customWidth="1"/>
+    <col min="58" max="58" width="28.1328125" customWidth="1"/>
+    <col min="59" max="59" width="26.59765625" customWidth="1"/>
+    <col min="60" max="60" width="30.73046875" customWidth="1"/>
+    <col min="61" max="61" width="32.265625" customWidth="1"/>
     <col min="63" max="64" width="26" customWidth="1"/>
-    <col min="65" max="65" width="27.5703125" customWidth="1"/>
+    <col min="65" max="65" width="27.59765625" customWidth="1"/>
     <col min="66" max="66" width="26" customWidth="1"/>
-    <col min="67" max="68" width="27.5703125" customWidth="1"/>
-    <col min="69" max="69" width="29.140625" customWidth="1"/>
-    <col min="70" max="70" width="27.5703125" customWidth="1"/>
-    <col min="71" max="71" width="31.7109375" customWidth="1"/>
-    <col min="72" max="72" width="33.28515625" customWidth="1"/>
+    <col min="67" max="68" width="27.59765625" customWidth="1"/>
+    <col min="69" max="69" width="29.1328125" customWidth="1"/>
+    <col min="70" max="70" width="27.59765625" customWidth="1"/>
+    <col min="71" max="71" width="31.73046875" customWidth="1"/>
+    <col min="72" max="72" width="33.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -15633,7 +15701,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A2" s="39" t="s">
         <v>188</v>
       </c>
@@ -15826,7 +15894,7 @@
         <v>2.6667000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A3" s="39" t="s">
         <v>184</v>
       </c>
@@ -16015,7 +16083,7 @@
         <v>-1.0909</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A4" s="39" t="s">
         <v>184</v>
       </c>
@@ -16208,7 +16276,7 @@
         <v>2.0364</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A5" s="39" t="s">
         <v>198</v>
       </c>
@@ -16399,7 +16467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A6" s="39" t="s">
         <v>199</v>
       </c>
@@ -16592,7 +16660,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A7" s="39" t="s">
         <v>185</v>
       </c>
@@ -16781,7 +16849,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A8" s="39" t="s">
         <v>203</v>
       </c>
@@ -16974,7 +17042,7 @@
         <v>2.4125000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A9" s="39" t="s">
         <v>205</v>
       </c>
@@ -17163,7 +17231,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A10" s="39" t="s">
         <v>207</v>
       </c>
@@ -17352,7 +17420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A11" s="39" t="s">
         <v>196</v>
       </c>
@@ -17541,7 +17609,7 @@
         <v>2.833333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A12" s="39" t="s">
         <v>191</v>
       </c>
@@ -17730,7 +17798,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A13" s="39" t="s">
         <v>216</v>
       </c>
@@ -17919,7 +17987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A14" s="39" t="s">
         <v>207</v>
       </c>
@@ -18106,7 +18174,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A15" s="39" t="s">
         <v>230</v>
       </c>
@@ -18293,7 +18361,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A16" s="39" t="s">
         <v>224</v>
       </c>
@@ -18525,57 +18593,57 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="30.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="32.265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.1328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.1328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.73046875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.73046875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.265625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="23" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.1328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.265625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="22" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.1328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="25.3984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.1328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="25.3984375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26.73046875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.3984375" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="25" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -18589,7 +18657,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>2.75</v>
       </c>
@@ -18603,7 +18671,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -18622,7 +18690,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -18641,7 +18709,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="16" t="s">
         <v>94</v>
       </c>
@@ -18667,7 +18735,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="18" t="s">
         <v>28</v>
       </c>
@@ -18693,7 +18761,7 @@
         <v>-1.0416666666666659</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="28" t="s">
         <v>24</v>
       </c>
@@ -18719,7 +18787,7 @@
         <v>-1.0999999999999979</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="28" t="s">
         <v>25</v>
       </c>
@@ -18745,7 +18813,7 @@
         <v>-1.0125</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="18" t="s">
         <v>30</v>
       </c>
@@ -18771,7 +18839,7 @@
         <v>-0.72499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="28" t="s">
         <v>245</v>
       </c>
@@ -18797,7 +18865,7 @@
         <v>-0.72499999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
         <v>31</v>
       </c>
@@ -18823,7 +18891,7 @@
         <v>-0.875</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
         <v>24</v>
       </c>
@@ -18849,7 +18917,7 @@
         <v>-0.875</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="18" t="s">
         <v>95</v>
       </c>
@@ -18875,8 +18943,8 @@
         <v>-0.94499999999999962</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="16" t="s">
         <v>94</v>
       </c>
@@ -18896,7 +18964,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="18" t="s">
         <v>146</v>
       </c>
@@ -18916,7 +18984,7 @@
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="18" t="s">
         <v>147</v>
       </c>
@@ -18936,7 +19004,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="18" t="s">
         <v>95</v>
       </c>
@@ -18969,9 +19037,9 @@
       <selection activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D7" s="30" t="s">
         <v>215</v>
       </c>
@@ -18979,7 +19047,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D8" s="39">
         <v>-1</v>
       </c>
@@ -18987,7 +19055,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D9" s="56">
         <v>-1</v>
       </c>
@@ -18995,7 +19063,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D10" s="39">
         <v>-0.67</v>
       </c>
@@ -19003,7 +19071,7 @@
         <v>-0.98750000000000004</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D11" s="56">
         <v>-0.6</v>
       </c>
@@ -19011,7 +19079,7 @@
         <v>2.4863</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D12" s="39">
         <v>-0.6</v>
       </c>
@@ -19019,7 +19087,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D13" s="56">
         <v>-0.35</v>
       </c>
@@ -19027,7 +19095,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D14" s="39">
         <v>-0.35</v>
       </c>
@@ -19035,7 +19103,7 @@
         <v>-1.0703</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D15" s="56">
         <v>-0.35</v>
       </c>
@@ -19043,7 +19111,7 @@
         <v>-1.0909</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D16" s="39">
         <v>-0.35</v>
       </c>
@@ -19051,7 +19119,7 @@
         <v>-0.48170000000000002</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" s="56">
         <v>-0.31</v>
       </c>
@@ -19059,7 +19127,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18" s="39">
         <v>-0.3</v>
       </c>
@@ -19067,7 +19135,7 @@
         <v>2.7692000000000001</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D19" s="56">
         <v>-0.3</v>
       </c>
@@ -19075,7 +19143,7 @@
         <v>-1.1599999999999999</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D20" s="39">
         <v>-0.3</v>
       </c>
@@ -19083,7 +19151,7 @@
         <v>-0.5333</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D21" s="56">
         <v>-0.3</v>
       </c>
@@ -19091,7 +19159,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D22" s="39">
         <v>-0.3</v>
       </c>
@@ -19099,7 +19167,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D23" s="56">
         <v>-0.28000000000000003</v>
       </c>
@@ -19107,7 +19175,7 @@
         <v>-1.2857000000000001</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D24" s="39">
         <v>-0.25</v>
       </c>
@@ -19115,7 +19183,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D25" s="56">
         <v>-0.25</v>
       </c>
@@ -19123,7 +19191,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D26" s="39">
         <v>-0.2</v>
       </c>
@@ -19131,7 +19199,7 @@
         <v>1.2333000000000001</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D27" s="56">
         <v>-0.2</v>
       </c>
@@ -19139,7 +19207,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D28" s="39">
         <v>-0.16</v>
       </c>
@@ -19147,7 +19215,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D29" s="56">
         <v>-0.16</v>
       </c>
@@ -19155,7 +19223,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D30" s="39">
         <v>-0.14000000000000001</v>
       </c>
@@ -19163,7 +19231,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D31" s="56">
         <v>-0.1</v>
       </c>
@@ -19171,7 +19239,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D32" s="39">
         <v>-0.1</v>
       </c>
@@ -19179,7 +19247,7 @@
         <v>-0.97499999999999998</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D33" s="56">
         <v>-0.1</v>
       </c>
@@ -19187,7 +19255,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D34" s="39">
         <v>-0.04</v>
       </c>
@@ -19195,7 +19263,7 @@
         <v>-1.1929000000000001</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D35" s="56">
         <v>-0.04</v>
       </c>
@@ -19203,7 +19271,7 @@
         <v>2.0750000000000002</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D36" s="39">
         <v>-0.04</v>
       </c>
@@ -19211,7 +19279,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D37" s="56">
         <v>-0.03</v>
       </c>
@@ -19219,7 +19287,7 @@
         <v>-1.05</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D38" s="39">
         <v>-0.02</v>
       </c>
@@ -19227,7 +19295,7 @@
         <v>-0.875</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D39" s="56">
         <v>-0.02</v>
       </c>
@@ -19235,7 +19303,7 @@
         <v>-0.99</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D40" s="39">
         <v>0</v>
       </c>
@@ -19243,7 +19311,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D41" s="56">
         <v>0.02</v>
       </c>
@@ -19251,7 +19319,7 @@
         <v>-1.1499999999999999</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D42" s="39">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -19259,7 +19327,7 @@
         <v>0.57140000000000002</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D43" s="56">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -19267,7 +19335,7 @@
         <v>3.0467</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D44" s="39">
         <v>0.12</v>
       </c>
@@ -19275,7 +19343,7 @@
         <v>0.16669999999999999</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D45" s="56">
         <v>0.14000000000000001</v>
       </c>
@@ -19283,7 +19351,7 @@
         <v>-1.0305</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D46" s="39">
         <v>0.15</v>
       </c>
@@ -19291,7 +19359,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D47" s="56">
         <v>0.23</v>
       </c>
@@ -19299,7 +19367,7 @@
         <v>-1.0832999999999999</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D48" s="39">
         <v>0.23</v>
       </c>
@@ -19307,7 +19375,7 @@
         <v>-1.2415</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D49" s="56">
         <v>0.23</v>
       </c>
@@ -19315,7 +19383,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D50" s="39">
         <v>0.24</v>
       </c>
@@ -19323,7 +19391,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D51" s="56">
         <v>0.34</v>
       </c>
@@ -19331,7 +19399,7 @@
         <v>0.15709999999999999</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D52" s="39">
         <v>0.38</v>
       </c>
@@ -19339,7 +19407,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D53" s="56">
         <v>0.38</v>
       </c>
@@ -19347,7 +19415,7 @@
         <v>-0.86</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D54" s="39">
         <v>0.62</v>
       </c>
@@ -19355,7 +19423,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D55" s="56">
         <v>0.62</v>
       </c>
@@ -19363,7 +19431,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D56" s="39">
         <v>0.72</v>
       </c>
@@ -19371,7 +19439,7 @@
         <v>0.44440000000000002</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D57" s="56">
         <v>0.85</v>
       </c>
@@ -19379,7 +19447,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D58" s="39">
         <v>0.85</v>
       </c>
@@ -19387,7 +19455,7 @@
         <v>-1.0249999999999999</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D59" s="56">
         <v>0.85</v>
       </c>
@@ -19395,7 +19463,7 @@
         <v>-0.97860000000000003</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D60" s="39">
         <v>0.88</v>
       </c>
@@ -19403,7 +19471,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D61" s="56">
         <v>0.88</v>
       </c>
@@ -19411,7 +19479,7 @@
         <v>1.8332999999999999</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D62" s="39">
         <v>1.06</v>
       </c>
@@ -19419,7 +19487,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D63" s="56">
         <v>1.06</v>
       </c>
@@ -19427,7 +19495,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D64" s="39">
         <v>1.06</v>
       </c>
@@ -19435,7 +19503,7 @@
         <v>-0.93330000000000002</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D65" s="56">
         <v>1.23</v>
       </c>
@@ -19443,7 +19511,7 @@
         <v>-1.3257000000000001</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D66" s="39">
         <v>1.23</v>
       </c>
@@ -19451,7 +19519,7 @@
         <v>-0.98570000000000002</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D67" s="56">
         <v>1.23</v>
       </c>
@@ -19459,7 +19527,7 @@
         <v>-0.85709999999999997</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D68" s="39">
         <v>1.23</v>
       </c>
@@ -19467,7 +19535,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D69" s="56">
         <v>1.23</v>
       </c>
@@ -19475,7 +19543,7 @@
         <v>1.1833</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D70" s="39">
         <v>1.23</v>
       </c>
@@ -19483,7 +19551,7 @@
         <v>4.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D71" s="56">
         <v>1.32</v>
       </c>
@@ -19505,15 +19573,15 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>94</v>
       </c>
@@ -19521,7 +19589,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -19529,7 +19597,7 @@
         <v>459.19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -19537,7 +19605,7 @@
         <v>80.63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="18">
         <v>3</v>
       </c>
@@ -19545,7 +19613,7 @@
         <v>-127.37333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -19553,7 +19621,7 @@
         <v>360.62333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -19561,7 +19629,7 @@
         <v>142.62</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
         <v>95</v>
       </c>
@@ -19583,24 +19651,24 @@
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="1"/>
-    <col min="18" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="83" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" customWidth="1"/>
+    <col min="18" max="23" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="83" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -19650,7 +19718,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -19696,10 +19764,10 @@
       </c>
       <c r="P2" s="29">
         <f ca="1">TODAY()</f>
-        <v>44183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="C3" t="s">
         <v>127</v>
@@ -19738,7 +19806,7 @@
       <c r="AO3" s="51"/>
       <c r="AP3" s="51"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="F4" t="s">
         <v>26</v>
@@ -19802,7 +19870,7 @@
       <c r="AO4" s="49"/>
       <c r="AP4" s="49"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="F5" t="s">
         <v>27</v>
@@ -19831,7 +19899,7 @@
       </c>
       <c r="P5" s="10">
         <f ca="1">TODAY()</f>
-        <v>44183</v>
+        <v>44215</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="Z5" s="18">
@@ -19850,7 +19918,7 @@
       <c r="AO5" s="49"/>
       <c r="AP5" s="49"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="F6" t="s">
         <v>129</v>
@@ -19905,7 +19973,7 @@
       <c r="AO6" s="49"/>
       <c r="AP6" s="49"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="H7" t="s">
         <v>35</v>
@@ -19922,11 +19990,11 @@
       </c>
       <c r="P7" s="10">
         <f t="shared" ref="P7" ca="1" si="1">TODAY()</f>
-        <v>44183</v>
+        <v>44215</v>
       </c>
       <c r="Q7" s="10">
         <f t="shared" ref="Q7" ca="1" si="2">TODAY()-1</f>
-        <v>44182</v>
+        <v>44214</v>
       </c>
       <c r="R7" s="10"/>
       <c r="Z7" s="18">
@@ -19947,7 +20015,7 @@
       <c r="AO7" s="49"/>
       <c r="AP7" s="49"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="H8" t="s">
         <v>36</v>
@@ -19998,7 +20066,7 @@
       <c r="AO8" s="49"/>
       <c r="AP8" s="49"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="H9" t="s">
         <v>37</v>
@@ -20015,15 +20083,15 @@
       </c>
       <c r="P9" s="10">
         <f t="shared" ref="P9" ca="1" si="4">TODAY()</f>
-        <v>44183</v>
+        <v>44215</v>
       </c>
       <c r="Q9" s="10">
         <f t="shared" ref="Q9" ca="1" si="5">TODAY()-1</f>
-        <v>44182</v>
+        <v>44214</v>
       </c>
       <c r="R9" s="10">
         <f ca="1">TODAY()-2</f>
-        <v>44181</v>
+        <v>44213</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -20047,7 +20115,7 @@
       <c r="AO9" s="49"/>
       <c r="AP9" s="49"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.45">
       <c r="H10" t="s">
         <v>38</v>
       </c>
@@ -20099,7 +20167,7 @@
       <c r="AO10" s="49"/>
       <c r="AP10" s="49"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.45">
       <c r="H11" t="s">
         <v>39</v>
       </c>
@@ -20115,19 +20183,19 @@
       </c>
       <c r="P11" s="10">
         <f t="shared" ref="P11" ca="1" si="7">TODAY()</f>
-        <v>44183</v>
+        <v>44215</v>
       </c>
       <c r="Q11" s="10">
         <f t="shared" ref="Q11" ca="1" si="8">TODAY()-1</f>
-        <v>44182</v>
+        <v>44214</v>
       </c>
       <c r="R11" s="10">
         <f ca="1">TODAY()-2</f>
-        <v>44181</v>
+        <v>44213</v>
       </c>
       <c r="S11" s="10">
         <f ca="1">TODAY()-3</f>
-        <v>44180</v>
+        <v>44212</v>
       </c>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
@@ -20142,7 +20210,7 @@
       <c r="AO11" s="49"/>
       <c r="AP11" s="49"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
         <v>50</v>
       </c>
@@ -20179,7 +20247,7 @@
       <c r="AO12" s="49"/>
       <c r="AP12" s="49"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
         <v>51</v>
       </c>
@@ -20192,23 +20260,23 @@
       </c>
       <c r="P13" s="10">
         <f t="shared" ref="P13" ca="1" si="10">TODAY()</f>
-        <v>44183</v>
+        <v>44215</v>
       </c>
       <c r="Q13" s="10">
         <f t="shared" ref="Q13" ca="1" si="11">TODAY()-1</f>
-        <v>44182</v>
+        <v>44214</v>
       </c>
       <c r="R13" s="10">
         <f ca="1">TODAY()-2</f>
-        <v>44181</v>
+        <v>44213</v>
       </c>
       <c r="S13" s="10">
         <f ca="1">TODAY()-3</f>
-        <v>44180</v>
+        <v>44212</v>
       </c>
       <c r="T13" s="10">
         <f ca="1">TODAY()-4</f>
-        <v>44179</v>
+        <v>44211</v>
       </c>
       <c r="AC13" s="18">
         <v>9</v>
@@ -20219,7 +20287,7 @@
       <c r="AO13" s="49"/>
       <c r="AP13" s="49"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
         <v>52</v>
       </c>
@@ -20256,7 +20324,7 @@
       <c r="AO14" s="49"/>
       <c r="AP14" s="49"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
         <v>53</v>
       </c>
@@ -20269,27 +20337,27 @@
       </c>
       <c r="P15" s="10">
         <f t="shared" ref="P15" ca="1" si="13">TODAY()</f>
-        <v>44183</v>
+        <v>44215</v>
       </c>
       <c r="Q15" s="10">
         <f t="shared" ref="Q15" ca="1" si="14">TODAY()-1</f>
-        <v>44182</v>
+        <v>44214</v>
       </c>
       <c r="R15" s="10">
         <f ca="1">TODAY()-2</f>
-        <v>44181</v>
+        <v>44213</v>
       </c>
       <c r="S15" s="10">
         <f ca="1">TODAY()-3</f>
-        <v>44180</v>
+        <v>44212</v>
       </c>
       <c r="T15" s="10">
         <f ca="1">TODAY()-4</f>
-        <v>44179</v>
+        <v>44211</v>
       </c>
       <c r="U15" s="10">
         <f ca="1">TODAY()-5</f>
-        <v>44178</v>
+        <v>44210</v>
       </c>
       <c r="AC15" s="18">
         <v>11</v>
@@ -20300,7 +20368,7 @@
       <c r="AO15" s="49"/>
       <c r="AP15" s="49"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
         <v>54</v>
       </c>
@@ -20337,7 +20405,7 @@
       <c r="AO16" s="49"/>
       <c r="AP16" s="49"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.45">
       <c r="I17" t="s">
         <v>55</v>
       </c>
@@ -20354,11 +20422,11 @@
       </c>
       <c r="Q17" s="10">
         <f t="shared" ref="Q17" ca="1" si="15">TODAY()-1</f>
-        <v>44182</v>
+        <v>44214</v>
       </c>
       <c r="R17" s="10">
         <f ca="1">TODAY()-2</f>
-        <v>44181</v>
+        <v>44213</v>
       </c>
       <c r="S17" s="10" t="str">
         <f>"=(TODAY()-3)"</f>
@@ -20366,15 +20434,15 @@
       </c>
       <c r="T17" s="10">
         <f ca="1">TODAY()-4</f>
-        <v>44179</v>
+        <v>44211</v>
       </c>
       <c r="U17" s="10">
         <f ca="1">TODAY()-5</f>
-        <v>44178</v>
+        <v>44210</v>
       </c>
       <c r="V17" s="10">
         <f ca="1">TODAY()-6</f>
-        <v>44177</v>
+        <v>44209</v>
       </c>
       <c r="AB17" s="10"/>
       <c r="AC17" s="18">
@@ -20389,7 +20457,7 @@
       <c r="AO17" s="49"/>
       <c r="AP17" s="49"/>
     </row>
-    <row r="18" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I18" t="s">
         <v>89</v>
       </c>
@@ -20406,10 +20474,10 @@
       <c r="AO18" s="50"/>
       <c r="AP18" s="50"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.45">
       <c r="S19" s="10" t="str">
         <f ca="1">CONCATENATE("=",S21)</f>
-        <v>=44180</v>
+        <v>=44212</v>
       </c>
       <c r="AC19" s="18">
         <v>15</v>
@@ -20418,7 +20486,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.45">
       <c r="S20" s="10" t="s">
         <v>104</v>
       </c>
@@ -20429,21 +20497,21 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>74</v>
       </c>
       <c r="S21" s="10">
         <f ca="1">TODAY()-3</f>
-        <v>44180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+        <v>44212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -20452,7 +20520,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -20461,7 +20529,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -20470,13 +20538,13 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.45">
       <c r="AN26" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>111</v>
       </c>
@@ -20485,7 +20553,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -20494,7 +20562,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -20503,7 +20571,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -20512,7 +20580,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -20521,7 +20589,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -20530,7 +20598,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -20539,7 +20607,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -20548,25 +20616,25 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN35" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN36" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN37" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -20575,7 +20643,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -20584,7 +20652,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>143</v>
       </c>
@@ -20593,7 +20661,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>145</v>
       </c>
@@ -20602,7 +20670,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -20611,25 +20679,25 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN43" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN44" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.45">
       <c r="AN45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -20638,7 +20706,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -20647,7 +20715,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>176</v>
       </c>
@@ -20656,1975 +20724,1975 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN49" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN50" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN51" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN52" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN53" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN54" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN55" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN56" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN57" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN58" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN59" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN60" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN61" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN62" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN63" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN64" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN65" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN66" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN67" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN68" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="69" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN69" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="70" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN70" t="str">
         <f t="shared" ref="AN70:AN133" si="17">IF(AND(AL69&gt;0, AL69&lt;1000000), AM69,"")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN71" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="72" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN72" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN73" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="74" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN74" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="75" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN75" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="76" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN76" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="77" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN77" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="78" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN78" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="79" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN79" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="80" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN80" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="81" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN81" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN82" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="83" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN83" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="84" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN84" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="85" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN85" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN86" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="87" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN87" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="88" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN88" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="89" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN89" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="90" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN90" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="91" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN91" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="92" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN92" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="93" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN93" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="94" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN94" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="95" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN95" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="96" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN96" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="97" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN97" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="98" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN98" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="99" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN99" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="100" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN100" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="101" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN101" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="102" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN102" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="103" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN103" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="104" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN104" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="105" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN105" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="106" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN106" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="107" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN107" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="108" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN108" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="109" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN109" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="110" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN110" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="111" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN111" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="112" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN112" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="113" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN113" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="114" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN114" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="115" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN115" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="116" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN116" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="117" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN117" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="118" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN118" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="119" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN119" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="120" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN120" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="121" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN121" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="122" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN122" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="123" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN123" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="124" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN124" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="125" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="126" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN126" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="127" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN127" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="128" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN128" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="129" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN129" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="130" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN130" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="131" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN131" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="132" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN132" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="133" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN133" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="134" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN134" t="str">
         <f t="shared" ref="AN134:AN197" si="18">IF(AND(AL133&gt;0, AL133&lt;1000000), AM133,"")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="135" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN135" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="136" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN136" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="137" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN137" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="138" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN138" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="139" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN139" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="140" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN140" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="141" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN141" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="142" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN142" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="143" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN143" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="144" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN144" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="145" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN145" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="146" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN146" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="147" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN147" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="148" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN148" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="149" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN149" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="150" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN150" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="151" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN151" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="152" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN152" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="153" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN153" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="154" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN154" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="155" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN155" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="156" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN156" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="157" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN157" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="158" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN158" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="159" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN159" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="160" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN160" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="161" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN161" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="162" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN162" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="163" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN163" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="164" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN164" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="165" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN165" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="166" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN166" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="167" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN167" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="168" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN168" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="169" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN169" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="170" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN170" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="171" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN171" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="172" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN172" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="173" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN173" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="174" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN174" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="175" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN175" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="176" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN176" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="177" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN177" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="178" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN178" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="179" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN179" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="180" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN180" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="181" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN181" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="182" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN182" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="183" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN183" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="184" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN184" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="185" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN185" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="186" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN186" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="187" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN187" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="188" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN188" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="189" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN189" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="190" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN190" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="191" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN191" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="192" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN192" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="193" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN193" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="194" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN194" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="195" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN195" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="196" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN196" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="197" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN197" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="198" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN198" t="str">
         <f t="shared" ref="AN198:AN261" si="19">IF(AND(AL197&gt;0, AL197&lt;1000000), AM197,"")</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="199" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN199" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="200" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN200" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="201" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN201" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="202" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN202" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="203" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN203" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="204" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN204" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="205" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN205" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="206" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN206" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="207" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN207" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="208" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN208" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="209" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN209" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="210" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN210" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="211" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN211" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="212" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN212" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="213" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN213" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="214" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN214" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="215" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN215" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="216" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN216" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="217" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN217" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="218" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN218" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="219" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN219" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="220" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN220" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="221" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN221" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="222" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN222" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="223" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN223" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="224" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN224" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="225" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN225" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="226" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN226" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="227" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN227" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="228" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN228" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="229" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN229" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="230" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN230" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="231" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN231" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="232" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN232" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="233" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN233" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="234" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN234" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="235" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN235" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="236" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN236" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="237" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN237" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="238" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN238" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="239" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN239" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="240" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN240" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="241" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN241" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="242" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN242" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="243" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN243" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="244" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN244" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="245" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN245" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="246" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN246" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="247" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN247" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="248" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN248" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="249" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN249" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="250" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN250" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="251" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN251" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="252" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN252" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="253" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN253" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="254" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN254" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="255" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN255" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="256" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN256" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="257" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN257" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="258" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN258" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="259" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN259" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="260" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN260" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="261" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN261" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="262" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN262" t="str">
         <f t="shared" ref="AN262:AN325" si="20">IF(AND(AL261&gt;0, AL261&lt;1000000), AM261,"")</f>
         <v/>
       </c>
     </row>
-    <row r="263" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="263" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN263" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="264" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN264" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="265" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN265" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="266" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN266" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="267" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN267" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="268" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN268" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="269" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN269" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="270" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN270" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="271" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN271" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="272" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN272" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="273" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN273" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="274" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN274" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="275" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN275" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="276" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN276" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="277" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN277" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="278" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN278" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="279" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN279" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="280" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN280" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="281" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN281" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="282" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN282" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="283" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN283" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="284" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN284" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="285" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN285" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="286" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN286" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="287" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN287" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="288" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN288" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="289" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN289" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="290" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN290" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="291" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN291" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="292" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN292" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="293" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN293" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="294" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN294" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="295" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN295" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="296" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN296" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="297" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN297" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="298" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN298" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="299" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN299" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="300" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN300" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="301" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN301" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="302" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN302" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="303" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN303" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="304" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN304" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="305" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN305" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="306" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN306" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="307" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN307" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="308" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN308" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="309" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN309" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="310" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN310" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="311" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN311" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="312" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN312" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="313" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN313" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="314" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN314" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="315" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN315" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="316" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN316" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="317" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN317" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="318" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN318" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="319" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN319" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="320" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN320" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="321" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN321" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="322" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN322" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="323" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN323" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="324" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN324" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="325" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN325" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="326" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN326" t="str">
         <f t="shared" ref="AN326:AN377" si="21">IF(AND(AL325&gt;0, AL325&lt;1000000), AM325,"")</f>
         <v/>
       </c>
     </row>
-    <row r="327" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="327" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN327" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="328" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN328" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="329" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN329" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="330" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN330" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="331" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN331" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="332" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN332" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="333" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN333" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="334" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN334" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="335" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN335" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="336" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN336" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="337" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN337" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="338" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN338" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="339" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN339" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="340" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN340" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="341" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN341" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="342" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN342" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="343" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN343" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="344" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN344" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="345" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN345" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="346" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN346" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="347" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN347" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="348" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN348" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="349" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN349" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="350" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN350" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="351" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN351" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="352" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN352" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="353" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN353" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="354" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN354" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="355" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN355" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="356" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN356" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="357" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN357" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="358" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN358" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="359" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN359" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="360" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN360" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="361" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN361" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="362" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN362" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="363" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN363" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="364" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN364" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="365" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN365" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="366" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN366" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="367" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN367" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="368" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN368" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="369" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN369" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="370" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN370" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="371" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN371" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="372" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN372" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="373" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN373" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="374" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN374" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="375" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN375" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="376" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN376" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="40:40" x14ac:dyDescent="0.25">
+    <row r="377" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN377" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -22645,15 +22713,15 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="47" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="47" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="16" t="s">
         <v>94</v>
       </c>
@@ -22661,7 +22729,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" s="18">
         <v>1</v>
       </c>
@@ -22669,7 +22737,7 @@
         <v>-0.72499999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="18">
         <v>2</v>
       </c>
@@ -22677,7 +22745,7 @@
         <v>-1.0999999999999979</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="18">
         <v>3</v>
       </c>
@@ -22685,7 +22753,7 @@
         <v>-0.94999999999999984</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="18">
         <v>4</v>
       </c>
@@ -22693,7 +22761,7 @@
         <v>-0.875</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="18">
         <v>5</v>
       </c>
@@ -22701,7 +22769,7 @@
         <v>-1.075</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="18" t="s">
         <v>95</v>
       </c>
